--- a/docs/excel/tables_and_charts_for_docs.xlsx
+++ b/docs/excel/tables_and_charts_for_docs.xlsx
@@ -8,14 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://cdc.sharepoint.com/teams/ncird-datalake/Shared Documents/GIFT-Analytics/zfi4/gift/docs/excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="225" documentId="8_{04449AB7-2B17-4FC7-BC22-C718DF14A049}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{72B04944-E73A-4A79-B48C-84C70345DD7F}"/>
+  <xr:revisionPtr revIDLastSave="49" documentId="8_{FE45D75D-BBCD-4ABD-B5B8-784D11AEB870}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{D7054356-6336-4DC1-912A-2B18FB047A6B}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{70427247-CB49-4109-ADFC-E8EA3B7176C3}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="2" xr2:uid="{70427247-CB49-4109-ADFC-E8EA3B7176C3}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="SelfAssessment" sheetId="1" r:id="rId1"/>
+    <sheet name="Products-Cloud" sheetId="2" r:id="rId2"/>
+    <sheet name="Products-Desktop" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="171">
   <si>
     <t>GIFT</t>
   </si>
@@ -142,6 +144,411 @@
   </si>
   <si>
     <t>Best Practice Patterns and Practices</t>
+  </si>
+  <si>
+    <t>Azure Active Directory</t>
+  </si>
+  <si>
+    <t>Azure Cost Management</t>
+  </si>
+  <si>
+    <t>Azure DataBricks Data Science and Engineering</t>
+  </si>
+  <si>
+    <t>Azure DataBricks SQL</t>
+  </si>
+  <si>
+    <t>Azure DataBricks Delta Live Tables</t>
+  </si>
+  <si>
+    <t>Azure Data Factory</t>
+  </si>
+  <si>
+    <t>Azure Key Vault</t>
+  </si>
+  <si>
+    <t>Azure DevOps</t>
+  </si>
+  <si>
+    <t>Azure Synapse</t>
+  </si>
+  <si>
+    <t>Postman</t>
+  </si>
+  <si>
+    <t>R Studio</t>
+  </si>
+  <si>
+    <t>DAX Studio</t>
+  </si>
+  <si>
+    <t>SAS</t>
+  </si>
+  <si>
+    <t>Tableau</t>
+  </si>
+  <si>
+    <t>Git Desktop</t>
+  </si>
+  <si>
+    <t>AWS</t>
+  </si>
+  <si>
+    <t>Google</t>
+  </si>
+  <si>
+    <t>Azure</t>
+  </si>
+  <si>
+    <t>Other</t>
+  </si>
+  <si>
+    <t>Service Category</t>
+  </si>
+  <si>
+    <t>Service</t>
+  </si>
+  <si>
+    <t>Security &amp; identity</t>
+  </si>
+  <si>
+    <t>CIAM</t>
+  </si>
+  <si>
+    <t>Amazon Cognito</t>
+  </si>
+  <si>
+    <t>Identity Platform</t>
+  </si>
+  <si>
+    <t>Azure Status</t>
+  </si>
+  <si>
+    <t>AWS Status</t>
+  </si>
+  <si>
+    <t>Google Status</t>
+  </si>
+  <si>
+    <t>Other Status</t>
+  </si>
+  <si>
+    <t>AWS Budgets</t>
+  </si>
+  <si>
+    <t>Cost Management</t>
+  </si>
+  <si>
+    <t>Management tools</t>
+  </si>
+  <si>
+    <t>Cost management</t>
+  </si>
+  <si>
+    <t>US HHS /CDC, KeyCloak</t>
+  </si>
+  <si>
+    <t>Data analytics</t>
+  </si>
+  <si>
+    <t>Cloud Data Fusion</t>
+  </si>
+  <si>
+    <t>AWS DataBricks Data Science and Engineering</t>
+  </si>
+  <si>
+    <t>Data Integration / ETL</t>
+  </si>
+  <si>
+    <t>AWS DataBricks SQL</t>
+  </si>
+  <si>
+    <t>BigQuery</t>
+  </si>
+  <si>
+    <t>Quality Control</t>
+  </si>
+  <si>
+    <t>Expectation Testing and Logging</t>
+  </si>
+  <si>
+    <t>AWS Simple Storage Service (S3)</t>
+  </si>
+  <si>
+    <t>Cloud Storage</t>
+  </si>
+  <si>
+    <t>Storage</t>
+  </si>
+  <si>
+    <t>Job Scheduling, Orhestration and Monitoring</t>
+  </si>
+  <si>
+    <t>Amazon AppFlow, Amazon Data Pipeline, AWS Glue</t>
+  </si>
+  <si>
+    <t>Secret management</t>
+  </si>
+  <si>
+    <t>AWS Secrets Manager</t>
+  </si>
+  <si>
+    <t>Secret Manager</t>
+  </si>
+  <si>
+    <t>AWS CodeBuild, AWS CodeDeploy, AWS CodePipeline</t>
+  </si>
+  <si>
+    <t>Cloud Build</t>
+  </si>
+  <si>
+    <t>App Modernization</t>
+  </si>
+  <si>
+    <t>CI/CD</t>
+  </si>
+  <si>
+    <t>Kubernetes, OpenShift</t>
+  </si>
+  <si>
+    <t>Serverless</t>
+  </si>
+  <si>
+    <t>Workflow orchestration</t>
+  </si>
+  <si>
+    <t>Workflows</t>
+  </si>
+  <si>
+    <t>AWS Step Functions</t>
+  </si>
+  <si>
+    <t>Azure Logic Apps, O365 Power Automate</t>
+  </si>
+  <si>
+    <t>Query service - Spark SQL</t>
+  </si>
+  <si>
+    <t>Query service - ANSI or MS SQL</t>
+  </si>
+  <si>
+    <t>Amazon Redshift Spectrum</t>
+  </si>
+  <si>
+    <t>GitLab, GitHub</t>
+  </si>
+  <si>
+    <t>Microsoft SQL Server</t>
+  </si>
+  <si>
+    <t>Network Storage</t>
+  </si>
+  <si>
+    <t>AppSheet, Google Sheets</t>
+  </si>
+  <si>
+    <t>AppSheet, Amazon Honeycode</t>
+  </si>
+  <si>
+    <t>Devleoper Tools</t>
+  </si>
+  <si>
+    <t>Collaboration</t>
+  </si>
+  <si>
+    <t>Slack</t>
+  </si>
+  <si>
+    <t>Mail</t>
+  </si>
+  <si>
+    <t>Data Transport and Conversion</t>
+  </si>
+  <si>
+    <t>Grid/List Viewing and Data Entry</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Grid/List Viewing </t>
+  </si>
+  <si>
+    <t>Presentation Viewing</t>
+  </si>
+  <si>
+    <t>Online Dashboards</t>
+  </si>
+  <si>
+    <t>Paginated Reports</t>
+  </si>
+  <si>
+    <t>Amazon QuickSight</t>
+  </si>
+  <si>
+    <t>Looker</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Dashboards Authoring</t>
+  </si>
+  <si>
+    <t>Report Authoring</t>
+  </si>
+  <si>
+    <t>Google Drive</t>
+  </si>
+  <si>
+    <t>Agile Planning and Issue Logging</t>
+  </si>
+  <si>
+    <t>GitLab, GitHub, Jira</t>
+  </si>
+  <si>
+    <t>Azure Purview, Azure Data Explorer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alation </t>
+  </si>
+  <si>
+    <t>AWS Glue Data Catalog</t>
+  </si>
+  <si>
+    <t>Data Catalog</t>
+  </si>
+  <si>
+    <t>Data discovery and metadata management</t>
+  </si>
+  <si>
+    <t>Tableau Desktop</t>
+  </si>
+  <si>
+    <t>Query service - ANSI or MS SQL Server</t>
+  </si>
+  <si>
+    <t>Data entry</t>
+  </si>
+  <si>
+    <t>SSMS, Visual Studio, VS Code</t>
+  </si>
+  <si>
+    <t>Storage Authoring and Management</t>
+  </si>
+  <si>
+    <t>C#, Python, SQL, Powershell, Bash, YML, JavaScript, TypeScript, Angular Authoring</t>
+  </si>
+  <si>
+    <t>HTTP Endpoint Development, Testing and Documentationj</t>
+  </si>
+  <si>
+    <t>R Authoring and Management</t>
+  </si>
+  <si>
+    <t>DAX Authoring and Management</t>
+  </si>
+  <si>
+    <t>SQL, DAX, MDX Authoring and Management</t>
+  </si>
+  <si>
+    <t>Developer Tools</t>
+  </si>
+  <si>
+    <t>SAS Authoring and Management</t>
+  </si>
+  <si>
+    <t>Environment</t>
+  </si>
+  <si>
+    <t>Operating System</t>
+  </si>
+  <si>
+    <t>Redhat Openshift, Kubernetes</t>
+  </si>
+  <si>
+    <t>Hosting</t>
+  </si>
+  <si>
+    <t>UI Framework</t>
+  </si>
+  <si>
+    <t>O365 Power Automate, Azure Logic Apps</t>
+  </si>
+  <si>
+    <t>O365 SharePoint Lists</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O365 Power BI Premium </t>
+  </si>
+  <si>
+    <t xml:space="preserve">O365 Power BI </t>
+  </si>
+  <si>
+    <t>O365 Mail</t>
+  </si>
+  <si>
+    <t>Azure Data Lake Gen2,  O365 SharePoint</t>
+  </si>
+  <si>
+    <t>Code Repository Integration</t>
+  </si>
+  <si>
+    <t>One Drive Client</t>
+  </si>
+  <si>
+    <t>DevOps Integration Tool for Office 2019</t>
+  </si>
+  <si>
+    <t>Azure Data Explorer Desktop</t>
+  </si>
+  <si>
+    <t>O365 Teams</t>
+  </si>
+  <si>
+    <t>VS Code</t>
+  </si>
+  <si>
+    <t>O365 Excel Client</t>
+  </si>
+  <si>
+    <t>O365 PowerPoint Client</t>
+  </si>
+  <si>
+    <t>O365 Power BI Report Builder Desktop Client</t>
+  </si>
+  <si>
+    <t>Microsoft Status</t>
+  </si>
+  <si>
+    <t>Unix</t>
+  </si>
+  <si>
+    <t>Unix Status</t>
+  </si>
+  <si>
+    <t>Apple</t>
+  </si>
+  <si>
+    <t>Apple Status</t>
+  </si>
+  <si>
+    <t>Windows 10, 11,</t>
+  </si>
+  <si>
+    <t>Unix/Docker/Ubuntu</t>
+  </si>
+  <si>
+    <t>Mac OS X</t>
+  </si>
+  <si>
+    <t>Cloud storage sync</t>
+  </si>
+  <si>
+    <t>On Premise Folder Shares</t>
+  </si>
+  <si>
+    <t>Data Viewing</t>
+  </si>
+  <si>
+    <t>O365 Power BI Client</t>
+  </si>
+  <si>
+    <t>Progress Kendo Angular UX</t>
   </si>
 </sst>
 </file>
@@ -151,7 +558,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="\ ;;;\ "/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -189,16 +596,36 @@
       <name val="Elephant"/>
       <family val="1"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="11">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -314,11 +741,57 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
@@ -353,11 +826,185 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="12">
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -368,6 +1015,28 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{3000B87F-9895-4E37-B659-0C4449A816AC}" name="Table1" displayName="Table1" ref="B2:K21" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B3:K21">
+    <sortCondition ref="B3:B21"/>
+    <sortCondition ref="C3:C21"/>
+  </sortState>
+  <tableColumns count="10">
+    <tableColumn id="1" xr3:uid="{8FF39C9C-E837-430E-88E3-A025804BDA4F}" name="Service Category" dataDxfId="0"/>
+    <tableColumn id="2" xr3:uid="{4F0A1DAC-F529-4C18-B438-C9809B34A7B0}" name="Service" dataDxfId="9"/>
+    <tableColumn id="3" xr3:uid="{4853614A-C660-4C8F-8D7F-A204AE138FA4}" name="Azure" dataDxfId="8"/>
+    <tableColumn id="4" xr3:uid="{0B4A769F-4B78-4604-98FE-8665CFFF9CF2}" name="Azure Status" dataDxfId="7"/>
+    <tableColumn id="5" xr3:uid="{F2C94CE0-75C8-49E4-BDD1-48C32FE3D042}" name="AWS" dataDxfId="6"/>
+    <tableColumn id="6" xr3:uid="{6CCBA1AE-BF86-41C4-B084-C6A2A303A0D5}" name="AWS Status" dataDxfId="5"/>
+    <tableColumn id="7" xr3:uid="{3E3F389D-4974-4728-A30C-B07A4FDA2567}" name="Google" dataDxfId="4"/>
+    <tableColumn id="8" xr3:uid="{9DC23159-BA60-4E74-9D52-121EB6342B83}" name="Google Status" dataDxfId="3"/>
+    <tableColumn id="9" xr3:uid="{2AC2F4C6-6D7B-4FF7-9203-9C18B5BB0457}" name="Other" dataDxfId="2"/>
+    <tableColumn id="10" xr3:uid="{6C38D686-E74A-4B2A-9A87-8F1F99AB31D0}" name="Other Status" dataDxfId="1"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -669,8 +1338,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5CB4C4DF-AAD0-4D1D-9439-0093742BF50D}">
   <dimension ref="B2:F192"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2175,6 +2844,1372 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0805D13D-48B2-41F6-905E-230623B073DC}">
+  <dimension ref="B1:L23"/>
+  <sheetViews>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="3.85546875" style="19" customWidth="1"/>
+    <col min="2" max="2" width="23" style="19" customWidth="1"/>
+    <col min="3" max="3" width="24.42578125" style="19" customWidth="1"/>
+    <col min="4" max="4" width="23.140625" style="20" customWidth="1"/>
+    <col min="5" max="5" width="6.140625" style="20" customWidth="1"/>
+    <col min="6" max="6" width="23" style="21" customWidth="1"/>
+    <col min="7" max="7" width="5.7109375" style="20" customWidth="1"/>
+    <col min="8" max="8" width="20.7109375" style="21" customWidth="1"/>
+    <col min="9" max="9" width="5.7109375" style="20" customWidth="1"/>
+    <col min="10" max="10" width="23.7109375" style="21" customWidth="1"/>
+    <col min="11" max="11" width="5.7109375" style="20" customWidth="1"/>
+    <col min="12" max="12" width="6.28515625" style="21" customWidth="1"/>
+    <col min="13" max="13" width="16.85546875" style="19" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="19"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="C1" s="20"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="20"/>
+      <c r="G1" s="21"/>
+      <c r="H1" s="20"/>
+      <c r="I1" s="21"/>
+      <c r="J1" s="20"/>
+      <c r="K1" s="21"/>
+      <c r="L1" s="19"/>
+    </row>
+    <row r="2" spans="2:12" s="18" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="22" t="s">
+        <v>55</v>
+      </c>
+      <c r="C2" s="22" t="s">
+        <v>56</v>
+      </c>
+      <c r="D2" s="29" t="s">
+        <v>53</v>
+      </c>
+      <c r="E2" s="29" t="s">
+        <v>61</v>
+      </c>
+      <c r="F2" s="29" t="s">
+        <v>51</v>
+      </c>
+      <c r="G2" s="29" t="s">
+        <v>62</v>
+      </c>
+      <c r="H2" s="29" t="s">
+        <v>52</v>
+      </c>
+      <c r="I2" s="29" t="s">
+        <v>63</v>
+      </c>
+      <c r="J2" s="29" t="s">
+        <v>54</v>
+      </c>
+      <c r="K2" s="29" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="3" spans="2:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="B3" s="20" t="s">
+        <v>88</v>
+      </c>
+      <c r="C3" s="27" t="s">
+        <v>89</v>
+      </c>
+      <c r="D3" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="E3" s="25">
+        <v>3</v>
+      </c>
+      <c r="F3" s="20" t="s">
+        <v>86</v>
+      </c>
+      <c r="G3" s="25">
+        <v>0</v>
+      </c>
+      <c r="H3" s="20" t="s">
+        <v>87</v>
+      </c>
+      <c r="I3" s="25">
+        <v>0</v>
+      </c>
+      <c r="J3" s="20" t="s">
+        <v>99</v>
+      </c>
+      <c r="K3" s="26">
+        <v>3</v>
+      </c>
+      <c r="L3" s="19"/>
+    </row>
+    <row r="4" spans="2:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="B4" s="24" t="s">
+        <v>70</v>
+      </c>
+      <c r="C4" s="27" t="s">
+        <v>125</v>
+      </c>
+      <c r="D4" s="27" t="s">
+        <v>121</v>
+      </c>
+      <c r="E4" s="25">
+        <v>1</v>
+      </c>
+      <c r="F4" s="27" t="s">
+        <v>123</v>
+      </c>
+      <c r="G4" s="25">
+        <v>0</v>
+      </c>
+      <c r="H4" s="20" t="s">
+        <v>124</v>
+      </c>
+      <c r="I4" s="25">
+        <v>0</v>
+      </c>
+      <c r="J4" s="20" t="s">
+        <v>122</v>
+      </c>
+      <c r="K4" s="25">
+        <v>1</v>
+      </c>
+      <c r="L4" s="19"/>
+    </row>
+    <row r="5" spans="2:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="B5" s="20" t="s">
+        <v>70</v>
+      </c>
+      <c r="C5" s="27" t="s">
+        <v>73</v>
+      </c>
+      <c r="D5" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="E5" s="25">
+        <v>3</v>
+      </c>
+      <c r="F5" s="20" t="s">
+        <v>72</v>
+      </c>
+      <c r="G5" s="25">
+        <v>3</v>
+      </c>
+      <c r="H5" s="20" t="s">
+        <v>71</v>
+      </c>
+      <c r="I5" s="25">
+        <v>0</v>
+      </c>
+      <c r="J5" s="20"/>
+      <c r="K5" s="26"/>
+      <c r="L5" s="19"/>
+    </row>
+    <row r="6" spans="2:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="B6" s="20" t="s">
+        <v>70</v>
+      </c>
+      <c r="C6" s="27" t="s">
+        <v>81</v>
+      </c>
+      <c r="D6" s="20" t="s">
+        <v>41</v>
+      </c>
+      <c r="E6" s="25">
+        <v>3</v>
+      </c>
+      <c r="F6" s="20" t="s">
+        <v>82</v>
+      </c>
+      <c r="G6" s="25">
+        <v>1</v>
+      </c>
+      <c r="H6" s="20" t="s">
+        <v>71</v>
+      </c>
+      <c r="I6" s="25">
+        <v>0</v>
+      </c>
+      <c r="J6" s="20"/>
+      <c r="K6" s="26"/>
+      <c r="L6" s="19"/>
+    </row>
+    <row r="7" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B7" s="20" t="s">
+        <v>70</v>
+      </c>
+      <c r="C7" s="27" t="s">
+        <v>112</v>
+      </c>
+      <c r="D7" s="24" t="s">
+        <v>146</v>
+      </c>
+      <c r="E7" s="25">
+        <v>3</v>
+      </c>
+      <c r="F7" s="20" t="s">
+        <v>114</v>
+      </c>
+      <c r="G7" s="25"/>
+      <c r="H7" s="20" t="s">
+        <v>115</v>
+      </c>
+      <c r="I7" s="25">
+        <v>0</v>
+      </c>
+      <c r="J7" s="20" t="s">
+        <v>49</v>
+      </c>
+      <c r="K7" s="25">
+        <v>1</v>
+      </c>
+      <c r="L7" s="19"/>
+    </row>
+    <row r="8" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B8" s="20" t="s">
+        <v>70</v>
+      </c>
+      <c r="C8" s="27" t="s">
+        <v>113</v>
+      </c>
+      <c r="D8" s="24" t="s">
+        <v>145</v>
+      </c>
+      <c r="E8" s="25">
+        <v>3</v>
+      </c>
+      <c r="F8" s="20"/>
+      <c r="G8" s="25"/>
+      <c r="H8" s="20"/>
+      <c r="I8" s="25"/>
+      <c r="J8" s="20"/>
+      <c r="K8" s="25"/>
+      <c r="L8" s="19"/>
+    </row>
+    <row r="9" spans="2:12" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="20" t="s">
+        <v>70</v>
+      </c>
+      <c r="C9" s="27" t="s">
+        <v>97</v>
+      </c>
+      <c r="D9" s="20" t="s">
+        <v>44</v>
+      </c>
+      <c r="E9" s="25">
+        <v>3</v>
+      </c>
+      <c r="F9" s="20" t="s">
+        <v>98</v>
+      </c>
+      <c r="G9" s="25">
+        <v>0</v>
+      </c>
+      <c r="H9" s="20" t="s">
+        <v>75</v>
+      </c>
+      <c r="I9" s="25">
+        <v>0</v>
+      </c>
+      <c r="J9" s="20"/>
+      <c r="K9" s="26"/>
+      <c r="L9" s="19"/>
+    </row>
+    <row r="10" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B10" s="20" t="s">
+        <v>70</v>
+      </c>
+      <c r="C10" s="27" t="s">
+        <v>96</v>
+      </c>
+      <c r="D10" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="E10" s="25">
+        <v>3</v>
+      </c>
+      <c r="F10" s="20" t="s">
+        <v>74</v>
+      </c>
+      <c r="G10" s="25">
+        <v>1</v>
+      </c>
+      <c r="H10" s="20" t="s">
+        <v>75</v>
+      </c>
+      <c r="I10" s="25">
+        <v>0</v>
+      </c>
+      <c r="J10" s="20"/>
+      <c r="K10" s="25"/>
+      <c r="L10" s="19"/>
+    </row>
+    <row r="11" spans="2:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="B11" s="20" t="s">
+        <v>128</v>
+      </c>
+      <c r="C11" s="27" t="s">
+        <v>109</v>
+      </c>
+      <c r="D11" s="20" t="s">
+        <v>144</v>
+      </c>
+      <c r="E11" s="25">
+        <v>3</v>
+      </c>
+      <c r="F11" s="20" t="s">
+        <v>103</v>
+      </c>
+      <c r="G11" s="25">
+        <v>0</v>
+      </c>
+      <c r="H11" s="20" t="s">
+        <v>102</v>
+      </c>
+      <c r="I11" s="25">
+        <v>1</v>
+      </c>
+      <c r="J11" s="20"/>
+      <c r="K11" s="25"/>
+      <c r="L11" s="19"/>
+    </row>
+    <row r="12" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B12" s="20" t="s">
+        <v>104</v>
+      </c>
+      <c r="C12" s="27" t="s">
+        <v>107</v>
+      </c>
+      <c r="D12" s="20" t="s">
+        <v>147</v>
+      </c>
+      <c r="E12" s="25">
+        <v>3</v>
+      </c>
+      <c r="F12" s="20"/>
+      <c r="G12" s="25"/>
+      <c r="H12" s="20"/>
+      <c r="I12" s="25"/>
+      <c r="J12" s="20"/>
+      <c r="K12" s="26"/>
+      <c r="L12" s="19"/>
+    </row>
+    <row r="13" spans="2:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="B13" s="20" t="s">
+        <v>141</v>
+      </c>
+      <c r="C13" s="27" t="s">
+        <v>139</v>
+      </c>
+      <c r="D13" s="20" t="s">
+        <v>140</v>
+      </c>
+      <c r="E13" s="25"/>
+      <c r="F13" s="20"/>
+      <c r="G13" s="25"/>
+      <c r="H13" s="20"/>
+      <c r="I13" s="25"/>
+      <c r="J13" s="20"/>
+      <c r="K13" s="26"/>
+      <c r="L13" s="19"/>
+    </row>
+    <row r="14" spans="2:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="B14" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="C14" s="27" t="s">
+        <v>119</v>
+      </c>
+      <c r="D14" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="E14" s="25">
+        <v>3</v>
+      </c>
+      <c r="F14" s="20"/>
+      <c r="G14" s="25"/>
+      <c r="H14" s="20"/>
+      <c r="I14" s="25"/>
+      <c r="J14" s="20" t="s">
+        <v>120</v>
+      </c>
+      <c r="K14" s="26"/>
+      <c r="L14" s="19"/>
+    </row>
+    <row r="15" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B15" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="C15" s="27" t="s">
+        <v>68</v>
+      </c>
+      <c r="D15" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="E15" s="25">
+        <v>1</v>
+      </c>
+      <c r="F15" s="20" t="s">
+        <v>65</v>
+      </c>
+      <c r="G15" s="25">
+        <v>0</v>
+      </c>
+      <c r="H15" s="20" t="s">
+        <v>66</v>
+      </c>
+      <c r="I15" s="25">
+        <v>0</v>
+      </c>
+      <c r="J15" s="20"/>
+      <c r="K15" s="26"/>
+      <c r="L15" s="19"/>
+    </row>
+    <row r="16" spans="2:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="B16" s="20" t="s">
+        <v>76</v>
+      </c>
+      <c r="C16" s="27" t="s">
+        <v>77</v>
+      </c>
+      <c r="D16" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="E16" s="25">
+        <v>1</v>
+      </c>
+      <c r="F16" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="G16" s="25">
+        <v>1</v>
+      </c>
+      <c r="H16" s="20"/>
+      <c r="I16" s="25"/>
+      <c r="J16" s="20"/>
+      <c r="K16" s="26"/>
+      <c r="L16" s="19"/>
+    </row>
+    <row r="17" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="20" t="s">
+        <v>57</v>
+      </c>
+      <c r="C17" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="D17" s="24" t="s">
+        <v>36</v>
+      </c>
+      <c r="E17" s="25">
+        <v>3</v>
+      </c>
+      <c r="F17" s="20" t="s">
+        <v>59</v>
+      </c>
+      <c r="G17" s="25">
+        <v>0</v>
+      </c>
+      <c r="H17" s="20" t="s">
+        <v>60</v>
+      </c>
+      <c r="I17" s="25">
+        <v>0</v>
+      </c>
+      <c r="J17" s="20" t="s">
+        <v>69</v>
+      </c>
+      <c r="K17" s="26">
+        <v>3</v>
+      </c>
+      <c r="L17" s="19"/>
+    </row>
+    <row r="18" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B18" s="20" t="s">
+        <v>57</v>
+      </c>
+      <c r="C18" s="27" t="s">
+        <v>83</v>
+      </c>
+      <c r="D18" s="24" t="s">
+        <v>42</v>
+      </c>
+      <c r="E18" s="25">
+        <v>3</v>
+      </c>
+      <c r="F18" s="20" t="s">
+        <v>84</v>
+      </c>
+      <c r="G18" s="25">
+        <v>0</v>
+      </c>
+      <c r="H18" s="20" t="s">
+        <v>85</v>
+      </c>
+      <c r="I18" s="25">
+        <v>0</v>
+      </c>
+      <c r="J18" s="20" t="s">
+        <v>90</v>
+      </c>
+      <c r="K18" s="26">
+        <v>1</v>
+      </c>
+      <c r="L18" s="19"/>
+    </row>
+    <row r="19" spans="2:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="B19" s="20" t="s">
+        <v>91</v>
+      </c>
+      <c r="C19" s="27" t="s">
+        <v>108</v>
+      </c>
+      <c r="D19" s="20" t="s">
+        <v>143</v>
+      </c>
+      <c r="E19" s="25">
+        <v>3</v>
+      </c>
+      <c r="F19" s="20" t="s">
+        <v>94</v>
+      </c>
+      <c r="G19" s="25"/>
+      <c r="H19" s="20" t="s">
+        <v>93</v>
+      </c>
+      <c r="I19" s="25">
+        <v>0</v>
+      </c>
+      <c r="J19" s="20"/>
+      <c r="K19" s="26"/>
+      <c r="L19" s="19"/>
+    </row>
+    <row r="20" spans="2:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="B20" s="20" t="s">
+        <v>91</v>
+      </c>
+      <c r="C20" s="27" t="s">
+        <v>92</v>
+      </c>
+      <c r="D20" s="20" t="s">
+        <v>95</v>
+      </c>
+      <c r="E20" s="25">
+        <v>3</v>
+      </c>
+      <c r="F20" s="20" t="s">
+        <v>94</v>
+      </c>
+      <c r="G20" s="25">
+        <v>0</v>
+      </c>
+      <c r="H20" s="20" t="s">
+        <v>93</v>
+      </c>
+      <c r="I20" s="25">
+        <v>0</v>
+      </c>
+      <c r="J20" s="20"/>
+      <c r="K20" s="26"/>
+      <c r="L20" s="19"/>
+    </row>
+    <row r="21" spans="2:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="B21" s="20" t="s">
+        <v>80</v>
+      </c>
+      <c r="C21" s="27" t="s">
+        <v>79</v>
+      </c>
+      <c r="D21" s="20" t="s">
+        <v>148</v>
+      </c>
+      <c r="E21" s="25">
+        <v>3</v>
+      </c>
+      <c r="F21" s="20" t="s">
+        <v>78</v>
+      </c>
+      <c r="G21" s="25">
+        <v>1</v>
+      </c>
+      <c r="H21" s="20" t="s">
+        <v>79</v>
+      </c>
+      <c r="I21" s="25">
+        <v>0</v>
+      </c>
+      <c r="J21" s="20" t="s">
+        <v>90</v>
+      </c>
+      <c r="K21" s="26">
+        <v>1</v>
+      </c>
+      <c r="L21" s="19"/>
+    </row>
+    <row r="22" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="H22" s="23"/>
+      <c r="I22" s="24"/>
+    </row>
+    <row r="23" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="H23" s="23"/>
+      <c r="I23" s="24"/>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="F3">
+    <cfRule type="iconSet" priority="38">
+      <iconSet iconSet="3Symbols2">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="33"/>
+        <cfvo type="percent" val="67"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G5">
+    <cfRule type="iconSet" priority="29">
+      <iconSet iconSet="3Symbols2" showValue="0">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="num" val="1"/>
+        <cfvo type="num" val="2"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G6">
+    <cfRule type="iconSet" priority="27">
+      <iconSet iconSet="3Symbols2" showValue="0">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="num" val="1"/>
+        <cfvo type="num" val="2"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G7">
+    <cfRule type="iconSet" priority="26">
+      <iconSet iconSet="3Symbols2" showValue="0">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="num" val="1"/>
+        <cfvo type="num" val="2"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G8">
+    <cfRule type="iconSet" priority="25">
+      <iconSet iconSet="3Symbols2" showValue="0">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="num" val="1"/>
+        <cfvo type="num" val="2"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G9">
+    <cfRule type="iconSet" priority="24">
+      <iconSet iconSet="3Symbols2" showValue="0">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="num" val="1"/>
+        <cfvo type="num" val="2"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G17">
+    <cfRule type="iconSet" priority="19">
+      <iconSet iconSet="3Symbols2" showValue="0">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="num" val="1"/>
+        <cfvo type="num" val="2"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I17">
+    <cfRule type="iconSet" priority="18">
+      <iconSet iconSet="3Symbols2" showValue="0">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="num" val="1"/>
+        <cfvo type="num" val="2"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G12">
+    <cfRule type="iconSet" priority="17">
+      <iconSet iconSet="3Symbols2" showValue="0">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="num" val="1"/>
+        <cfvo type="num" val="2"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G13:G14">
+    <cfRule type="iconSet" priority="16">
+      <iconSet iconSet="3Symbols2" showValue="0">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="num" val="1"/>
+        <cfvo type="num" val="2"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G11">
+    <cfRule type="iconSet" priority="15">
+      <iconSet iconSet="3Symbols2" showValue="0">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="num" val="1"/>
+        <cfvo type="num" val="2"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G10">
+    <cfRule type="iconSet" priority="14">
+      <iconSet iconSet="3Symbols2" showValue="0">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="num" val="1"/>
+        <cfvo type="num" val="2"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K10">
+    <cfRule type="iconSet" priority="13">
+      <iconSet iconSet="3Symbols2" showValue="0">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="num" val="1"/>
+        <cfvo type="num" val="2"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K8">
+    <cfRule type="iconSet" priority="12">
+      <iconSet iconSet="3Symbols2" showValue="0">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="num" val="1"/>
+        <cfvo type="num" val="2"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K11 E3:E10 E12:E21">
+    <cfRule type="iconSet" priority="127">
+      <iconSet iconSet="3Symbols2" showValue="0">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="num" val="1"/>
+        <cfvo type="num" val="2"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K3 K12:K21 K9 K5:K6">
+    <cfRule type="iconSet" priority="138">
+      <iconSet iconSet="3Symbols2" showValue="0">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="num" val="1"/>
+        <cfvo type="num" val="2"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E11">
+    <cfRule type="iconSet" priority="11">
+      <iconSet iconSet="3Symbols2" showValue="0">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="num" val="1"/>
+        <cfvo type="num" val="2"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K4">
+    <cfRule type="iconSet" priority="10">
+      <iconSet iconSet="3Symbols2" showValue="0">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="num" val="1"/>
+        <cfvo type="num" val="2"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K7">
+    <cfRule type="iconSet" priority="9">
+      <iconSet iconSet="3Symbols2" showValue="0">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="num" val="1"/>
+        <cfvo type="num" val="2"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G15:G16 G18:G21 G3:G4">
+    <cfRule type="iconSet" priority="145">
+      <iconSet iconSet="3Symbols2" showValue="0">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="num" val="1"/>
+        <cfvo type="num" val="2"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I18:I21 I3:I16">
+    <cfRule type="iconSet" priority="149">
+      <iconSet iconSet="3Symbols2" showValue="0">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="num" val="1"/>
+        <cfvo type="num" val="2"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E782526-D8E4-4C3E-B5BE-C6A454AF7798}">
+  <dimension ref="B2:K21"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="O8" sqref="O8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="20.7109375" customWidth="1"/>
+    <col min="3" max="3" width="21.42578125" customWidth="1"/>
+    <col min="4" max="4" width="25.7109375" customWidth="1"/>
+    <col min="5" max="5" width="10.140625" customWidth="1"/>
+    <col min="6" max="6" width="25.7109375" customWidth="1"/>
+    <col min="7" max="7" width="5.7109375" customWidth="1"/>
+    <col min="8" max="8" width="25.7109375" customWidth="1"/>
+    <col min="9" max="9" width="5.7109375" customWidth="1"/>
+    <col min="10" max="10" width="25.7109375" customWidth="1"/>
+    <col min="11" max="11" width="5.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:11" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="B2" s="32" t="s">
+        <v>55</v>
+      </c>
+      <c r="C2" s="30" t="s">
+        <v>56</v>
+      </c>
+      <c r="D2" s="31" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="31" t="s">
+        <v>158</v>
+      </c>
+      <c r="F2" s="31" t="s">
+        <v>159</v>
+      </c>
+      <c r="G2" s="31" t="s">
+        <v>160</v>
+      </c>
+      <c r="H2" s="31" t="s">
+        <v>161</v>
+      </c>
+      <c r="I2" s="31" t="s">
+        <v>162</v>
+      </c>
+      <c r="J2" s="31" t="s">
+        <v>54</v>
+      </c>
+      <c r="K2" s="34" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="3" spans="2:11" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="33" t="s">
+        <v>70</v>
+      </c>
+      <c r="C3" s="27" t="s">
+        <v>116</v>
+      </c>
+      <c r="D3" s="24" t="s">
+        <v>169</v>
+      </c>
+      <c r="E3" s="25">
+        <v>3</v>
+      </c>
+      <c r="F3" s="24"/>
+      <c r="G3" s="25"/>
+      <c r="H3" s="20"/>
+      <c r="I3" s="25"/>
+      <c r="J3" s="20"/>
+      <c r="K3" s="25"/>
+    </row>
+    <row r="4" spans="2:11" s="19" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="B4" s="33" t="s">
+        <v>70</v>
+      </c>
+      <c r="C4" s="24" t="s">
+        <v>127</v>
+      </c>
+      <c r="D4" s="28" t="s">
+        <v>100</v>
+      </c>
+      <c r="E4" s="25">
+        <v>3</v>
+      </c>
+      <c r="F4" s="20"/>
+      <c r="G4" s="25"/>
+      <c r="H4" s="20"/>
+      <c r="I4" s="25"/>
+      <c r="J4" s="20"/>
+      <c r="K4" s="25"/>
+    </row>
+    <row r="5" spans="2:11" s="19" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="B5" s="33" t="s">
+        <v>70</v>
+      </c>
+      <c r="C5" s="24" t="s">
+        <v>117</v>
+      </c>
+      <c r="D5" s="28" t="s">
+        <v>157</v>
+      </c>
+      <c r="E5" s="25">
+        <v>3</v>
+      </c>
+      <c r="F5" s="20"/>
+      <c r="G5" s="25"/>
+      <c r="H5" s="20"/>
+      <c r="I5" s="25"/>
+      <c r="J5" s="20" t="s">
+        <v>126</v>
+      </c>
+      <c r="K5" s="25"/>
+    </row>
+    <row r="6" spans="2:11" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="33" t="s">
+        <v>168</v>
+      </c>
+      <c r="C6" s="24" t="s">
+        <v>110</v>
+      </c>
+      <c r="D6" s="28" t="s">
+        <v>155</v>
+      </c>
+      <c r="E6" s="25">
+        <v>3</v>
+      </c>
+      <c r="F6" s="20"/>
+      <c r="G6" s="25"/>
+      <c r="H6" s="20"/>
+      <c r="I6" s="25"/>
+      <c r="J6" s="20"/>
+      <c r="K6" s="25"/>
+    </row>
+    <row r="7" spans="2:11" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="33" t="s">
+        <v>168</v>
+      </c>
+      <c r="C7" s="27" t="s">
+        <v>111</v>
+      </c>
+      <c r="D7" s="24" t="s">
+        <v>156</v>
+      </c>
+      <c r="E7" s="25">
+        <v>3</v>
+      </c>
+      <c r="F7" s="20"/>
+      <c r="G7" s="25"/>
+      <c r="H7" s="20"/>
+      <c r="I7" s="25"/>
+      <c r="J7" s="20"/>
+      <c r="K7" s="25"/>
+    </row>
+    <row r="8" spans="2:11" s="19" customFormat="1" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="33" t="s">
+        <v>136</v>
+      </c>
+      <c r="C8" s="27" t="s">
+        <v>131</v>
+      </c>
+      <c r="D8" s="20" t="s">
+        <v>154</v>
+      </c>
+      <c r="E8" s="25">
+        <v>3</v>
+      </c>
+      <c r="F8" s="20"/>
+      <c r="G8" s="25"/>
+      <c r="H8" s="20"/>
+      <c r="I8" s="25"/>
+      <c r="J8" s="20"/>
+      <c r="K8" s="25"/>
+    </row>
+    <row r="9" spans="2:11" s="19" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="B9" s="33" t="s">
+        <v>136</v>
+      </c>
+      <c r="C9" s="27" t="s">
+        <v>149</v>
+      </c>
+      <c r="D9" s="20"/>
+      <c r="E9" s="25"/>
+      <c r="F9" s="20"/>
+      <c r="G9" s="25"/>
+      <c r="H9" s="20"/>
+      <c r="I9" s="25"/>
+      <c r="J9" s="20" t="s">
+        <v>50</v>
+      </c>
+      <c r="K9" s="25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="2:11" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="33" t="s">
+        <v>136</v>
+      </c>
+      <c r="C10" s="27" t="s">
+        <v>105</v>
+      </c>
+      <c r="D10" s="20" t="s">
+        <v>153</v>
+      </c>
+      <c r="E10" s="25">
+        <v>3</v>
+      </c>
+      <c r="F10" s="20"/>
+      <c r="G10" s="25"/>
+      <c r="H10" s="20"/>
+      <c r="I10" s="25"/>
+      <c r="J10" s="20" t="s">
+        <v>106</v>
+      </c>
+      <c r="K10" s="25"/>
+    </row>
+    <row r="11" spans="2:11" s="19" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="B11" s="33" t="s">
+        <v>136</v>
+      </c>
+      <c r="C11" s="27" t="s">
+        <v>134</v>
+      </c>
+      <c r="D11" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="E11" s="25">
+        <v>3</v>
+      </c>
+      <c r="F11" s="20"/>
+      <c r="G11" s="25"/>
+      <c r="H11" s="20"/>
+      <c r="I11" s="25"/>
+      <c r="J11" s="20"/>
+      <c r="K11" s="25"/>
+    </row>
+    <row r="12" spans="2:11" s="19" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="B12" s="33" t="s">
+        <v>136</v>
+      </c>
+      <c r="C12" s="27" t="s">
+        <v>132</v>
+      </c>
+      <c r="D12" s="20"/>
+      <c r="E12" s="25"/>
+      <c r="F12" s="20"/>
+      <c r="G12" s="25"/>
+      <c r="H12" s="20"/>
+      <c r="I12" s="25"/>
+      <c r="J12" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="K12" s="25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="2:11" s="19" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="B13" s="33" t="s">
+        <v>136</v>
+      </c>
+      <c r="C13" s="27" t="s">
+        <v>133</v>
+      </c>
+      <c r="D13" s="20"/>
+      <c r="E13" s="25"/>
+      <c r="F13" s="20"/>
+      <c r="G13" s="25"/>
+      <c r="H13" s="20"/>
+      <c r="I13" s="25"/>
+      <c r="J13" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="K13" s="25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="2:11" s="19" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="B14" s="33" t="s">
+        <v>136</v>
+      </c>
+      <c r="C14" s="27" t="s">
+        <v>137</v>
+      </c>
+      <c r="D14" s="20"/>
+      <c r="E14" s="25"/>
+      <c r="F14" s="20"/>
+      <c r="G14" s="25"/>
+      <c r="H14" s="20"/>
+      <c r="I14" s="25"/>
+      <c r="J14" s="20" t="s">
+        <v>48</v>
+      </c>
+      <c r="K14" s="25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="2:11" s="19" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="B15" s="33" t="s">
+        <v>136</v>
+      </c>
+      <c r="C15" s="27" t="s">
+        <v>135</v>
+      </c>
+      <c r="D15" s="24" t="s">
+        <v>129</v>
+      </c>
+      <c r="E15" s="25">
+        <v>3</v>
+      </c>
+      <c r="F15" s="20"/>
+      <c r="G15" s="25"/>
+      <c r="H15" s="20"/>
+      <c r="I15" s="25"/>
+      <c r="J15" s="20"/>
+      <c r="K15" s="25"/>
+    </row>
+    <row r="16" spans="2:11" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="33" t="s">
+        <v>136</v>
+      </c>
+      <c r="C16" s="27" t="s">
+        <v>142</v>
+      </c>
+      <c r="D16" s="20"/>
+      <c r="E16" s="25"/>
+      <c r="F16" s="20"/>
+      <c r="G16" s="25"/>
+      <c r="H16" s="20"/>
+      <c r="I16" s="25"/>
+      <c r="J16" s="20" t="s">
+        <v>170</v>
+      </c>
+      <c r="K16" s="25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="2:11" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="33" t="s">
+        <v>138</v>
+      </c>
+      <c r="C17" s="27" t="s">
+        <v>139</v>
+      </c>
+      <c r="D17" s="20" t="s">
+        <v>163</v>
+      </c>
+      <c r="E17" s="25"/>
+      <c r="F17" s="20" t="s">
+        <v>164</v>
+      </c>
+      <c r="G17" s="25"/>
+      <c r="H17" s="20" t="s">
+        <v>165</v>
+      </c>
+      <c r="I17" s="25"/>
+      <c r="K17" s="25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="2:11" s="19" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="B18" s="33" t="s">
+        <v>67</v>
+      </c>
+      <c r="C18" s="27" t="s">
+        <v>119</v>
+      </c>
+      <c r="D18" s="20" t="s">
+        <v>151</v>
+      </c>
+      <c r="E18" s="25">
+        <v>3</v>
+      </c>
+      <c r="F18" s="20"/>
+      <c r="G18" s="25"/>
+      <c r="H18" s="20"/>
+      <c r="I18" s="25"/>
+      <c r="J18" s="20"/>
+      <c r="K18" s="25"/>
+    </row>
+    <row r="19" spans="2:11" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B19" s="33" t="s">
+        <v>80</v>
+      </c>
+      <c r="C19" s="27" t="s">
+        <v>166</v>
+      </c>
+      <c r="D19" s="20" t="s">
+        <v>150</v>
+      </c>
+      <c r="E19" s="25">
+        <v>3</v>
+      </c>
+      <c r="F19" s="20"/>
+      <c r="G19" s="25"/>
+      <c r="H19" s="20" t="s">
+        <v>118</v>
+      </c>
+      <c r="I19" s="25"/>
+      <c r="J19" s="20"/>
+      <c r="K19" s="25"/>
+    </row>
+    <row r="20" spans="2:11" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="33" t="s">
+        <v>80</v>
+      </c>
+      <c r="C20" s="27" t="s">
+        <v>101</v>
+      </c>
+      <c r="D20" s="20" t="s">
+        <v>167</v>
+      </c>
+      <c r="E20" s="25">
+        <v>3</v>
+      </c>
+      <c r="F20" s="20"/>
+      <c r="G20" s="25"/>
+      <c r="H20" s="20"/>
+      <c r="I20" s="25"/>
+      <c r="J20" s="20"/>
+      <c r="K20" s="25"/>
+    </row>
+    <row r="21" spans="2:11" s="19" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="B21" s="35" t="s">
+        <v>80</v>
+      </c>
+      <c r="C21" s="36" t="s">
+        <v>130</v>
+      </c>
+      <c r="D21" s="37" t="s">
+        <v>152</v>
+      </c>
+      <c r="E21" s="38">
+        <v>3</v>
+      </c>
+      <c r="F21" s="37"/>
+      <c r="G21" s="38"/>
+      <c r="H21" s="37"/>
+      <c r="I21" s="38"/>
+      <c r="J21" s="37"/>
+      <c r="K21" s="38"/>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="K12 E3:E8 K9 E12:E19">
+    <cfRule type="iconSet" priority="9">
+      <iconSet iconSet="3Symbols2" showValue="0">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="num" val="1"/>
+        <cfvo type="num" val="2"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K10:K11 K3:K8 K15 K18:K21">
+    <cfRule type="iconSet" priority="10">
+      <iconSet iconSet="3Symbols2" showValue="0">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="num" val="1"/>
+        <cfvo type="num" val="2"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E10">
+    <cfRule type="iconSet" priority="8">
+      <iconSet iconSet="3Symbols2" showValue="0">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="num" val="1"/>
+        <cfvo type="num" val="2"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E11">
+    <cfRule type="iconSet" priority="7">
+      <iconSet iconSet="3Symbols2" showValue="0">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="num" val="1"/>
+        <cfvo type="num" val="2"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K13">
+    <cfRule type="iconSet" priority="6">
+      <iconSet iconSet="3Symbols2" showValue="0">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="num" val="1"/>
+        <cfvo type="num" val="2"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K14">
+    <cfRule type="iconSet" priority="5">
+      <iconSet iconSet="3Symbols2" showValue="0">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="num" val="1"/>
+        <cfvo type="num" val="2"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K16">
+    <cfRule type="iconSet" priority="4">
+      <iconSet iconSet="3Symbols2" showValue="0">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="num" val="1"/>
+        <cfvo type="num" val="2"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K17">
+    <cfRule type="iconSet" priority="3">
+      <iconSet iconSet="3Symbols2" showValue="0">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="num" val="1"/>
+        <cfvo type="num" val="2"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E20">
+    <cfRule type="iconSet" priority="2">
+      <iconSet iconSet="3Symbols2" showValue="0">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="num" val="1"/>
+        <cfvo type="num" val="2"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E21">
+    <cfRule type="iconSet" priority="1">
+      <iconSet iconSet="3Symbols2" showValue="0">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="num" val="1"/>
+        <cfvo type="num" val="2"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G3:G21">
+    <cfRule type="iconSet" priority="11">
+      <iconSet iconSet="3Symbols2" showValue="0">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="num" val="1"/>
+        <cfvo type="num" val="2"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I3:I21">
+    <cfRule type="iconSet" priority="12">
+      <iconSet iconSet="3Symbols2" showValue="0">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="num" val="1"/>
+        <cfvo type="num" val="2"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -2185,6 +4220,12 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100E9DF8450C6EFBE48970C7FCAF770DA1A" ma:contentTypeVersion="10" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="c6dcfda39d09abbc7e319e541775dd1d">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="fdcd1ac8-0856-4252-9620-ac12cf18151f" xmlns:ns3="9d3077f2-8ff2-4760-98d0-51448b525bb2" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="53212a687d31e99e11f835bc135dbf1a" ns2:_="" ns3:_="">
     <xsd:import namespace="fdcd1ac8-0856-4252-9620-ac12cf18151f"/>
@@ -2387,12 +4428,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F748C07B-9BF8-42E0-82B9-5EEDA9C329E9}">
   <ds:schemaRefs>
@@ -2402,14 +4437,21 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8515C2FC-9CC8-4ADF-B266-3209D6F8326F}">
+  <ds:schemaRefs/>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CD0A3277-3A7F-4349-BA58-E68925244953}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2000/xmlns/"/>
     <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="fdcd1ac8-0856-4252-9620-ac12cf18151f"/>
     <ds:schemaRef ds:uri="9d3077f2-8ff2-4760-98d0-51448b525bb2"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
@@ -2418,13 +4460,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8515C2FC-9CC8-4ADF-B266-3209D6F8326F}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/docs/excel/tables_and_charts_for_docs.xlsx
+++ b/docs/excel/tables_and_charts_for_docs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://cdc.sharepoint.com/teams/ncird-datalake/Shared Documents/GIFT-Analytics/zfi4/gift/docs/excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="49" documentId="8_{FE45D75D-BBCD-4ABD-B5B8-784D11AEB870}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{D7054356-6336-4DC1-912A-2B18FB047A6B}"/>
+  <xr:revisionPtr revIDLastSave="146" documentId="8_{FE45D75D-BBCD-4ABD-B5B8-784D11AEB870}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{0E2467B4-0972-45B1-ADBD-A25B12B89A15}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="2" xr2:uid="{70427247-CB49-4109-ADFC-E8EA3B7176C3}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{70427247-CB49-4109-ADFC-E8EA3B7176C3}"/>
   </bookViews>
   <sheets>
     <sheet name="SelfAssessment" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="171">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="342" uniqueCount="177">
   <si>
     <t>GIFT</t>
   </si>
@@ -549,6 +549,24 @@
   </si>
   <si>
     <t>Progress Kendo Angular UX</t>
+  </si>
+  <si>
+    <t>Security and Identity</t>
+  </si>
+  <si>
+    <t>Manage and Onboard Systems and Projects</t>
+  </si>
+  <si>
+    <t>Manage and Onboard Users and Roles</t>
+  </si>
+  <si>
+    <t>Manage and Onboard Partners and Organizations</t>
+  </si>
+  <si>
+    <t>🗹</t>
+  </si>
+  <si>
+    <t>🗷</t>
   </si>
 </sst>
 </file>
@@ -558,7 +576,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="\ ;;;\ "/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -610,6 +628,20 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="9" tint="-0.249977111117893"/>
+      <name val="Elephant"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FFC00000"/>
+      <name val="Elephant"/>
+      <family val="1"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -625,7 +657,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="15">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -659,19 +691,6 @@
       </left>
       <right/>
       <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
       <bottom/>
       <diagonal/>
     </border>
@@ -791,38 +810,28 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
@@ -845,46 +854,68 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -892,9 +923,6 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="12">
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
     <dxf>
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
@@ -977,6 +1005,9 @@
       </border>
     </dxf>
     <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -1024,16 +1055,16 @@
     <sortCondition ref="C3:C21"/>
   </sortState>
   <tableColumns count="10">
-    <tableColumn id="1" xr3:uid="{8FF39C9C-E837-430E-88E3-A025804BDA4F}" name="Service Category" dataDxfId="0"/>
-    <tableColumn id="2" xr3:uid="{4F0A1DAC-F529-4C18-B438-C9809B34A7B0}" name="Service" dataDxfId="9"/>
-    <tableColumn id="3" xr3:uid="{4853614A-C660-4C8F-8D7F-A204AE138FA4}" name="Azure" dataDxfId="8"/>
-    <tableColumn id="4" xr3:uid="{0B4A769F-4B78-4604-98FE-8665CFFF9CF2}" name="Azure Status" dataDxfId="7"/>
-    <tableColumn id="5" xr3:uid="{F2C94CE0-75C8-49E4-BDD1-48C32FE3D042}" name="AWS" dataDxfId="6"/>
-    <tableColumn id="6" xr3:uid="{6CCBA1AE-BF86-41C4-B084-C6A2A303A0D5}" name="AWS Status" dataDxfId="5"/>
-    <tableColumn id="7" xr3:uid="{3E3F389D-4974-4728-A30C-B07A4FDA2567}" name="Google" dataDxfId="4"/>
-    <tableColumn id="8" xr3:uid="{9DC23159-BA60-4E74-9D52-121EB6342B83}" name="Google Status" dataDxfId="3"/>
-    <tableColumn id="9" xr3:uid="{2AC2F4C6-6D7B-4FF7-9203-9C18B5BB0457}" name="Other" dataDxfId="2"/>
-    <tableColumn id="10" xr3:uid="{6C38D686-E74A-4B2A-9A87-8F1F99AB31D0}" name="Other Status" dataDxfId="1"/>
+    <tableColumn id="1" xr3:uid="{8FF39C9C-E837-430E-88E3-A025804BDA4F}" name="Service Category" dataDxfId="9"/>
+    <tableColumn id="2" xr3:uid="{4F0A1DAC-F529-4C18-B438-C9809B34A7B0}" name="Service" dataDxfId="8"/>
+    <tableColumn id="3" xr3:uid="{4853614A-C660-4C8F-8D7F-A204AE138FA4}" name="Azure" dataDxfId="7"/>
+    <tableColumn id="4" xr3:uid="{0B4A769F-4B78-4604-98FE-8665CFFF9CF2}" name="Azure Status" dataDxfId="6"/>
+    <tableColumn id="5" xr3:uid="{F2C94CE0-75C8-49E4-BDD1-48C32FE3D042}" name="AWS" dataDxfId="5"/>
+    <tableColumn id="6" xr3:uid="{6CCBA1AE-BF86-41C4-B084-C6A2A303A0D5}" name="AWS Status" dataDxfId="4"/>
+    <tableColumn id="7" xr3:uid="{3E3F389D-4974-4728-A30C-B07A4FDA2567}" name="Google" dataDxfId="3"/>
+    <tableColumn id="8" xr3:uid="{9DC23159-BA60-4E74-9D52-121EB6342B83}" name="Google Status" dataDxfId="2"/>
+    <tableColumn id="9" xr3:uid="{2AC2F4C6-6D7B-4FF7-9203-9C18B5BB0457}" name="Other" dataDxfId="1"/>
+    <tableColumn id="10" xr3:uid="{6C38D686-E74A-4B2A-9A87-8F1F99AB31D0}" name="Other Status" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1336,1492 +1367,1599 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5CB4C4DF-AAD0-4D1D-9439-0093742BF50D}">
-  <dimension ref="B2:F192"/>
+  <dimension ref="B2:H196"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="B31" sqref="B31"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="4.7109375" customWidth="1"/>
     <col min="2" max="2" width="48.140625" customWidth="1"/>
-    <col min="3" max="6" width="10" customWidth="1"/>
+    <col min="3" max="5" width="10" customWidth="1"/>
+    <col min="6" max="6" width="10" style="17" customWidth="1"/>
     <col min="7" max="7" width="4.28515625" customWidth="1"/>
+    <col min="8" max="8" width="9.140625" style="40"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B2" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="C2" s="10"/>
-      <c r="D2" s="11" t="s">
+      <c r="C2" s="7"/>
+      <c r="D2" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="E2" s="10"/>
-      <c r="F2" s="12"/>
-    </row>
-    <row r="3" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="E2" s="7"/>
+      <c r="F2" s="35"/>
+    </row>
+    <row r="3" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B3" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="C3" s="13" t="s">
+      <c r="C3" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="13" t="s">
+      <c r="D3" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="E3" s="13" t="s">
+      <c r="E3" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="F3" s="14" t="s">
+      <c r="F3" s="10" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="2:6" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B4" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="7">
-        <v>1</v>
-      </c>
-      <c r="D4" s="15" t="s">
+      <c r="C4" s="39" t="s">
+        <v>175</v>
+      </c>
+      <c r="D4" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="E4" s="7">
-        <v>0</v>
-      </c>
-      <c r="F4" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="2:6" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="E4" s="38" t="s">
+        <v>176</v>
+      </c>
+      <c r="F4" s="38" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="5" spans="2:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B5" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="8">
-        <v>1</v>
-      </c>
-      <c r="D5" s="15" t="s">
+      <c r="C5" s="39" t="s">
+        <v>175</v>
+      </c>
+      <c r="D5" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="E5" s="8">
-        <v>0</v>
-      </c>
-      <c r="F5" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="2:6" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="E5" s="38" t="s">
+        <v>176</v>
+      </c>
+      <c r="F5" s="38" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="6" spans="2:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B6" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="8">
-        <v>1</v>
-      </c>
-      <c r="D6" s="15" t="s">
+      <c r="C6" s="39" t="s">
+        <v>175</v>
+      </c>
+      <c r="D6" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="E6" s="8">
-        <v>0</v>
-      </c>
-      <c r="F6" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="2:6" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="E6" s="38" t="s">
+        <v>176</v>
+      </c>
+      <c r="F6" s="38" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="7" spans="2:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B7" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="8">
-        <v>1</v>
-      </c>
-      <c r="D7" s="15" t="s">
+      <c r="C7" s="39" t="s">
+        <v>175</v>
+      </c>
+      <c r="D7" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="E7" s="8">
-        <v>0</v>
-      </c>
-      <c r="F7" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="2:6" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="E7" s="38" t="s">
+        <v>176</v>
+      </c>
+      <c r="F7" s="38" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="8" spans="2:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B8" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="C8" s="39" t="s">
+        <v>175</v>
+      </c>
+      <c r="D8" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="E8" s="38" t="s">
+        <v>176</v>
+      </c>
+      <c r="F8" s="38" t="s">
+        <v>176</v>
+      </c>
+      <c r="H8" s="37"/>
+    </row>
+    <row r="9" spans="2:8" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B9" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="C9" s="39" t="s">
+        <v>175</v>
+      </c>
+      <c r="D9" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="E9" s="38" t="s">
+        <v>176</v>
+      </c>
+      <c r="F9" s="38" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="10" spans="2:8" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B10" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="C10" s="39" t="s">
+        <v>175</v>
+      </c>
+      <c r="D10" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="E10" s="38" t="s">
+        <v>176</v>
+      </c>
+      <c r="F10" s="38" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="11" spans="2:8" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B11" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="C11" s="39" t="s">
+        <v>175</v>
+      </c>
+      <c r="D11" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="E11" s="38" t="s">
+        <v>176</v>
+      </c>
+      <c r="F11" s="38" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="12" spans="2:8" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B12" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C8" s="8">
-        <v>1</v>
-      </c>
-      <c r="D8" s="15" t="s">
+      <c r="C12" s="39" t="s">
+        <v>175</v>
+      </c>
+      <c r="D12" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="E8" s="8">
-        <v>0</v>
-      </c>
-      <c r="F8" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="2:6" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="B9" s="4" t="s">
+      <c r="E12" s="38" t="s">
+        <v>176</v>
+      </c>
+      <c r="F12" s="38" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="13" spans="2:8" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B13" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="C9" s="8">
-        <v>1</v>
-      </c>
-      <c r="D9" s="15" t="s">
+      <c r="C13" s="39" t="s">
+        <v>175</v>
+      </c>
+      <c r="D13" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="E9" s="8">
-        <v>0</v>
-      </c>
-      <c r="F9" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="2:6" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="B10" s="4" t="s">
+      <c r="E13" s="38" t="s">
+        <v>176</v>
+      </c>
+      <c r="F13" s="38" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="14" spans="2:8" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B14" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="C10" s="8">
-        <v>1</v>
-      </c>
-      <c r="D10" s="15" t="s">
+      <c r="C14" s="39" t="s">
+        <v>175</v>
+      </c>
+      <c r="D14" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="E10" s="8">
-        <v>0</v>
-      </c>
-      <c r="F10" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="2:6" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="B11" s="4" t="s">
+      <c r="E14" s="38" t="s">
+        <v>176</v>
+      </c>
+      <c r="F14" s="38" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="15" spans="2:8" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B15" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="C11" s="8">
-        <v>1</v>
-      </c>
-      <c r="D11" s="15" t="s">
+      <c r="C15" s="39" t="s">
+        <v>175</v>
+      </c>
+      <c r="D15" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="E11" s="8">
-        <v>0</v>
-      </c>
-      <c r="F11" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="2:6" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="B12" s="2" t="s">
+      <c r="E15" s="38" t="s">
+        <v>176</v>
+      </c>
+      <c r="F15" s="38" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="16" spans="2:8" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B16" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C12" s="8">
-        <v>1</v>
-      </c>
-      <c r="D12" s="15" t="s">
+      <c r="C16" s="39" t="s">
+        <v>175</v>
+      </c>
+      <c r="D16" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="E12" s="8">
-        <v>0</v>
-      </c>
-      <c r="F12" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="2:6" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="B13" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="C13" s="8">
-        <v>1</v>
-      </c>
-      <c r="D13" s="15" t="s">
-        <v>30</v>
-      </c>
-      <c r="E13" s="8">
-        <v>0</v>
-      </c>
-      <c r="F13" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="2:6" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="B14" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="C14" s="8">
-        <v>1</v>
-      </c>
-      <c r="D14" s="15" t="s">
-        <v>30</v>
-      </c>
-      <c r="E14" s="8">
-        <v>0</v>
-      </c>
-      <c r="F14" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="2:6" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="B15" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C15" s="8">
-        <v>1</v>
-      </c>
-      <c r="D15" s="15" t="s">
-        <v>30</v>
-      </c>
-      <c r="E15" s="8">
-        <v>0</v>
-      </c>
-      <c r="F15" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="2:6" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="B16" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C16" s="8">
-        <v>1</v>
-      </c>
-      <c r="D16" s="15" t="s">
-        <v>30</v>
-      </c>
-      <c r="E16" s="8">
-        <v>0</v>
-      </c>
-      <c r="F16" s="8">
-        <v>0</v>
+      <c r="E16" s="38" t="s">
+        <v>176</v>
+      </c>
+      <c r="F16" s="38" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="17" spans="2:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B17" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" s="39" t="s">
+        <v>175</v>
+      </c>
+      <c r="D17" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="E17" s="38" t="s">
+        <v>176</v>
+      </c>
+      <c r="F17" s="38" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B18" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C18" s="39" t="s">
+        <v>175</v>
+      </c>
+      <c r="D18" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="E18" s="38" t="s">
+        <v>176</v>
+      </c>
+      <c r="F18" s="38" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="19" spans="2:6" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B19" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C19" s="39" t="s">
+        <v>175</v>
+      </c>
+      <c r="D19" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="E19" s="38" t="s">
+        <v>176</v>
+      </c>
+      <c r="F19" s="38" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="20" spans="2:6" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B20" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C20" s="39" t="s">
+        <v>175</v>
+      </c>
+      <c r="D20" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="E20" s="38" t="s">
+        <v>176</v>
+      </c>
+      <c r="F20" s="38" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="21" spans="2:6" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B21" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C17" s="8">
-        <v>1</v>
-      </c>
-      <c r="D17" s="15" t="s">
+      <c r="C21" s="39" t="s">
+        <v>175</v>
+      </c>
+      <c r="D21" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="E17" s="8">
-        <v>0</v>
-      </c>
-      <c r="F17" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="2:6" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="B18" s="2" t="s">
+      <c r="E21" s="38" t="s">
+        <v>176</v>
+      </c>
+      <c r="F21" s="38" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="22" spans="2:6" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B22" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="C18" s="8">
-        <v>1</v>
-      </c>
-      <c r="D18" s="15" t="s">
+      <c r="C22" s="39" t="s">
+        <v>175</v>
+      </c>
+      <c r="D22" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="E18" s="8">
-        <v>0</v>
-      </c>
-      <c r="F18" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="2:6" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="B19" s="17" t="s">
+      <c r="E22" s="38" t="s">
+        <v>176</v>
+      </c>
+      <c r="F22" s="38" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="23" spans="2:6" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B23" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="C19" s="8">
-        <v>1</v>
-      </c>
-      <c r="D19" s="15" t="s">
+      <c r="C23" s="39" t="s">
+        <v>175</v>
+      </c>
+      <c r="D23" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="E19" s="8">
-        <v>0</v>
-      </c>
-      <c r="F19" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="2:6" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="B20" s="17" t="s">
+      <c r="E23" s="38" t="s">
+        <v>176</v>
+      </c>
+      <c r="F23" s="38" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="24" spans="2:6" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B24" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="C20" s="8">
-        <v>1</v>
-      </c>
-      <c r="D20" s="15" t="s">
+      <c r="C24" s="39" t="s">
+        <v>175</v>
+      </c>
+      <c r="D24" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="E20" s="8">
-        <v>0</v>
-      </c>
-      <c r="F20" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="2:6" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="B21" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C21" s="8">
-        <v>1</v>
-      </c>
-      <c r="D21" s="15" t="s">
-        <v>30</v>
-      </c>
-      <c r="E21" s="8">
-        <v>0</v>
-      </c>
-      <c r="F21" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="2:6" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="B22" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C22" s="8">
-        <v>1</v>
-      </c>
-      <c r="D22" s="15" t="s">
-        <v>30</v>
-      </c>
-      <c r="E22" s="8">
-        <v>0</v>
-      </c>
-      <c r="F22" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="2:6" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="B23" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C23" s="8">
-        <v>1</v>
-      </c>
-      <c r="D23" s="15" t="s">
-        <v>30</v>
-      </c>
-      <c r="E23" s="8">
-        <v>0</v>
-      </c>
-      <c r="F23" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="2:6" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="B24" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C24" s="8">
-        <v>1</v>
-      </c>
-      <c r="D24" s="15" t="s">
-        <v>30</v>
-      </c>
-      <c r="E24" s="8">
-        <v>0</v>
-      </c>
-      <c r="F24" s="8">
-        <v>0</v>
+      <c r="E24" s="38" t="s">
+        <v>176</v>
+      </c>
+      <c r="F24" s="38" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="25" spans="2:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B25" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C25" s="8">
-        <v>1</v>
-      </c>
-      <c r="D25" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="39" t="s">
+        <v>175</v>
+      </c>
+      <c r="D25" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="E25" s="8">
-        <v>0</v>
-      </c>
-      <c r="F25" s="8">
-        <v>0</v>
+      <c r="E25" s="38" t="s">
+        <v>176</v>
+      </c>
+      <c r="F25" s="38" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="26" spans="2:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B26" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C26" s="8">
-        <v>1</v>
-      </c>
-      <c r="D26" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="C26" s="39" t="s">
+        <v>175</v>
+      </c>
+      <c r="D26" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="E26" s="8">
-        <v>0</v>
-      </c>
-      <c r="F26" s="8">
-        <v>0</v>
+      <c r="E26" s="38" t="s">
+        <v>176</v>
+      </c>
+      <c r="F26" s="38" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="27" spans="2:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B27" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C27" s="8">
-        <v>1</v>
-      </c>
-      <c r="D27" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="C27" s="39" t="s">
+        <v>175</v>
+      </c>
+      <c r="D27" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="E27" s="8">
-        <v>0</v>
-      </c>
-      <c r="F27" s="8">
-        <v>0</v>
+      <c r="E27" s="38" t="s">
+        <v>176</v>
+      </c>
+      <c r="F27" s="38" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="28" spans="2:6" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="B28" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C28" s="8">
-        <v>1</v>
-      </c>
-      <c r="D28" s="15" t="s">
+      <c r="B28" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C28" s="39" t="s">
+        <v>175</v>
+      </c>
+      <c r="D28" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="E28" s="8">
-        <v>0</v>
-      </c>
-      <c r="F28" s="8">
-        <v>0</v>
+      <c r="E28" s="38" t="s">
+        <v>176</v>
+      </c>
+      <c r="F28" s="38" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="29" spans="2:6" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="B29" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C29" s="8">
-        <v>1</v>
-      </c>
-      <c r="D29" s="15" t="s">
+      <c r="B29" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C29" s="39" t="s">
+        <v>175</v>
+      </c>
+      <c r="D29" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="E29" s="8">
-        <v>0</v>
-      </c>
-      <c r="F29" s="8">
-        <v>0</v>
+      <c r="E29" s="38" t="s">
+        <v>176</v>
+      </c>
+      <c r="F29" s="38" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="30" spans="2:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B30" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C30" s="39" t="s">
+        <v>175</v>
+      </c>
+      <c r="D30" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="E30" s="38" t="s">
+        <v>176</v>
+      </c>
+      <c r="F30" s="38" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="31" spans="2:6" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B31" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C31" s="39" t="s">
+        <v>175</v>
+      </c>
+      <c r="D31" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="E31" s="38" t="s">
+        <v>176</v>
+      </c>
+      <c r="F31" s="38" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="32" spans="2:6" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B32" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C32" s="39" t="s">
+        <v>175</v>
+      </c>
+      <c r="D32" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="E32" s="38" t="s">
+        <v>176</v>
+      </c>
+      <c r="F32" s="38" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="33" spans="2:6" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B33" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C33" s="39" t="s">
+        <v>175</v>
+      </c>
+      <c r="D33" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="E33" s="38" t="s">
+        <v>176</v>
+      </c>
+      <c r="F33" s="38" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="34" spans="2:6" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B34" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C30" s="8">
-        <v>1</v>
-      </c>
-      <c r="D30" s="15" t="s">
+      <c r="C34" s="39" t="s">
+        <v>175</v>
+      </c>
+      <c r="D34" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="E30" s="8">
-        <v>0</v>
-      </c>
-      <c r="F30" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="2:6" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="B31" s="5" t="s">
+      <c r="E34" s="38" t="s">
+        <v>176</v>
+      </c>
+      <c r="F34" s="38" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="35" spans="2:6" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B35" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="C31" s="9">
-        <v>1</v>
-      </c>
-      <c r="D31" s="16" t="s">
+      <c r="C35" s="41" t="s">
+        <v>175</v>
+      </c>
+      <c r="D35" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="E31" s="9">
-        <v>0</v>
-      </c>
-      <c r="F31" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="C32" s="1"/>
-      <c r="D32" s="1"/>
-      <c r="E32" s="1"/>
-      <c r="F32" s="1"/>
-    </row>
-    <row r="33" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C33" s="1"/>
-      <c r="D33" s="1"/>
-      <c r="E33" s="1"/>
-      <c r="F33" s="1"/>
-    </row>
-    <row r="34" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C34" s="1"/>
-      <c r="D34" s="1"/>
-      <c r="E34" s="1"/>
-      <c r="F34" s="1"/>
-    </row>
-    <row r="35" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C35" s="1"/>
-      <c r="D35" s="1"/>
-      <c r="E35" s="1"/>
-      <c r="F35" s="1"/>
-    </row>
-    <row r="36" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="E35" s="42" t="s">
+        <v>176</v>
+      </c>
+      <c r="F35" s="42" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="36" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C36" s="1"/>
       <c r="D36" s="1"/>
       <c r="E36" s="1"/>
-      <c r="F36" s="1"/>
-    </row>
-    <row r="37" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="F36" s="36"/>
+    </row>
+    <row r="37" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C37" s="1"/>
       <c r="D37" s="1"/>
       <c r="E37" s="1"/>
-      <c r="F37" s="1"/>
-    </row>
-    <row r="38" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="F37" s="36"/>
+    </row>
+    <row r="38" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C38" s="1"/>
       <c r="D38" s="1"/>
       <c r="E38" s="1"/>
-      <c r="F38" s="1"/>
-    </row>
-    <row r="39" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="F38" s="36"/>
+    </row>
+    <row r="39" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C39" s="1"/>
       <c r="D39" s="1"/>
       <c r="E39" s="1"/>
-      <c r="F39" s="1"/>
-    </row>
-    <row r="40" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="F39" s="36"/>
+    </row>
+    <row r="40" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C40" s="1"/>
       <c r="D40" s="1"/>
       <c r="E40" s="1"/>
-      <c r="F40" s="1"/>
-    </row>
-    <row r="41" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="F40" s="36"/>
+    </row>
+    <row r="41" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C41" s="1"/>
       <c r="D41" s="1"/>
       <c r="E41" s="1"/>
-      <c r="F41" s="1"/>
-    </row>
-    <row r="42" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="F41" s="36"/>
+    </row>
+    <row r="42" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C42" s="1"/>
       <c r="D42" s="1"/>
       <c r="E42" s="1"/>
-      <c r="F42" s="1"/>
-    </row>
-    <row r="43" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="F42" s="36"/>
+    </row>
+    <row r="43" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C43" s="1"/>
       <c r="D43" s="1"/>
       <c r="E43" s="1"/>
-      <c r="F43" s="1"/>
-    </row>
-    <row r="44" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="F43" s="36"/>
+    </row>
+    <row r="44" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C44" s="1"/>
       <c r="D44" s="1"/>
       <c r="E44" s="1"/>
-      <c r="F44" s="1"/>
-    </row>
-    <row r="45" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="F44" s="36"/>
+    </row>
+    <row r="45" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C45" s="1"/>
       <c r="D45" s="1"/>
       <c r="E45" s="1"/>
-      <c r="F45" s="1"/>
-    </row>
-    <row r="46" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="F45" s="36"/>
+    </row>
+    <row r="46" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C46" s="1"/>
       <c r="D46" s="1"/>
       <c r="E46" s="1"/>
-      <c r="F46" s="1"/>
-    </row>
-    <row r="47" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="F46" s="36"/>
+    </row>
+    <row r="47" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C47" s="1"/>
       <c r="D47" s="1"/>
       <c r="E47" s="1"/>
-      <c r="F47" s="1"/>
-    </row>
-    <row r="48" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="F47" s="36"/>
+    </row>
+    <row r="48" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C48" s="1"/>
       <c r="D48" s="1"/>
       <c r="E48" s="1"/>
-      <c r="F48" s="1"/>
+      <c r="F48" s="36"/>
     </row>
     <row r="49" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C49" s="1"/>
       <c r="D49" s="1"/>
       <c r="E49" s="1"/>
-      <c r="F49" s="1"/>
+      <c r="F49" s="36"/>
     </row>
     <row r="50" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C50" s="1"/>
       <c r="D50" s="1"/>
       <c r="E50" s="1"/>
-      <c r="F50" s="1"/>
+      <c r="F50" s="36"/>
     </row>
     <row r="51" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C51" s="1"/>
       <c r="D51" s="1"/>
       <c r="E51" s="1"/>
-      <c r="F51" s="1"/>
+      <c r="F51" s="36"/>
     </row>
     <row r="52" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C52" s="1"/>
       <c r="D52" s="1"/>
       <c r="E52" s="1"/>
-      <c r="F52" s="1"/>
+      <c r="F52" s="36"/>
     </row>
     <row r="53" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C53" s="1"/>
       <c r="D53" s="1"/>
       <c r="E53" s="1"/>
-      <c r="F53" s="1"/>
+      <c r="F53" s="36"/>
     </row>
     <row r="54" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C54" s="1"/>
       <c r="D54" s="1"/>
       <c r="E54" s="1"/>
-      <c r="F54" s="1"/>
+      <c r="F54" s="36"/>
     </row>
     <row r="55" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C55" s="1"/>
       <c r="D55" s="1"/>
       <c r="E55" s="1"/>
-      <c r="F55" s="1"/>
+      <c r="F55" s="36"/>
     </row>
     <row r="56" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C56" s="1"/>
       <c r="D56" s="1"/>
       <c r="E56" s="1"/>
-      <c r="F56" s="1"/>
+      <c r="F56" s="36"/>
     </row>
     <row r="57" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C57" s="1"/>
       <c r="D57" s="1"/>
       <c r="E57" s="1"/>
-      <c r="F57" s="1"/>
+      <c r="F57" s="36"/>
     </row>
     <row r="58" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C58" s="1"/>
       <c r="D58" s="1"/>
       <c r="E58" s="1"/>
-      <c r="F58" s="1"/>
+      <c r="F58" s="36"/>
     </row>
     <row r="59" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C59" s="1"/>
       <c r="D59" s="1"/>
       <c r="E59" s="1"/>
-      <c r="F59" s="1"/>
+      <c r="F59" s="36"/>
     </row>
     <row r="60" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C60" s="1"/>
       <c r="D60" s="1"/>
       <c r="E60" s="1"/>
-      <c r="F60" s="1"/>
+      <c r="F60" s="36"/>
     </row>
     <row r="61" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C61" s="1"/>
       <c r="D61" s="1"/>
       <c r="E61" s="1"/>
-      <c r="F61" s="1"/>
+      <c r="F61" s="36"/>
     </row>
     <row r="62" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C62" s="1"/>
       <c r="D62" s="1"/>
       <c r="E62" s="1"/>
-      <c r="F62" s="1"/>
+      <c r="F62" s="36"/>
     </row>
     <row r="63" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C63" s="1"/>
       <c r="D63" s="1"/>
       <c r="E63" s="1"/>
-      <c r="F63" s="1"/>
+      <c r="F63" s="36"/>
     </row>
     <row r="64" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C64" s="1"/>
       <c r="D64" s="1"/>
       <c r="E64" s="1"/>
-      <c r="F64" s="1"/>
+      <c r="F64" s="36"/>
     </row>
     <row r="65" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C65" s="1"/>
       <c r="D65" s="1"/>
       <c r="E65" s="1"/>
-      <c r="F65" s="1"/>
+      <c r="F65" s="36"/>
     </row>
     <row r="66" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C66" s="1"/>
       <c r="D66" s="1"/>
       <c r="E66" s="1"/>
-      <c r="F66" s="1"/>
+      <c r="F66" s="36"/>
     </row>
     <row r="67" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C67" s="1"/>
       <c r="D67" s="1"/>
       <c r="E67" s="1"/>
-      <c r="F67" s="1"/>
+      <c r="F67" s="36"/>
     </row>
     <row r="68" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C68" s="1"/>
       <c r="D68" s="1"/>
       <c r="E68" s="1"/>
-      <c r="F68" s="1"/>
+      <c r="F68" s="36"/>
     </row>
     <row r="69" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C69" s="1"/>
       <c r="D69" s="1"/>
       <c r="E69" s="1"/>
-      <c r="F69" s="1"/>
+      <c r="F69" s="36"/>
     </row>
     <row r="70" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C70" s="1"/>
       <c r="D70" s="1"/>
       <c r="E70" s="1"/>
-      <c r="F70" s="1"/>
+      <c r="F70" s="36"/>
     </row>
     <row r="71" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C71" s="1"/>
       <c r="D71" s="1"/>
       <c r="E71" s="1"/>
-      <c r="F71" s="1"/>
+      <c r="F71" s="36"/>
     </row>
     <row r="72" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C72" s="1"/>
       <c r="D72" s="1"/>
       <c r="E72" s="1"/>
-      <c r="F72" s="1"/>
+      <c r="F72" s="36"/>
     </row>
     <row r="73" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C73" s="1"/>
       <c r="D73" s="1"/>
       <c r="E73" s="1"/>
-      <c r="F73" s="1"/>
+      <c r="F73" s="36"/>
     </row>
     <row r="74" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C74" s="1"/>
       <c r="D74" s="1"/>
       <c r="E74" s="1"/>
-      <c r="F74" s="1"/>
+      <c r="F74" s="36"/>
     </row>
     <row r="75" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C75" s="1"/>
       <c r="D75" s="1"/>
       <c r="E75" s="1"/>
-      <c r="F75" s="1"/>
+      <c r="F75" s="36"/>
     </row>
     <row r="76" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C76" s="1"/>
       <c r="D76" s="1"/>
       <c r="E76" s="1"/>
-      <c r="F76" s="1"/>
+      <c r="F76" s="36"/>
     </row>
     <row r="77" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C77" s="1"/>
       <c r="D77" s="1"/>
       <c r="E77" s="1"/>
-      <c r="F77" s="1"/>
+      <c r="F77" s="36"/>
     </row>
     <row r="78" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C78" s="1"/>
       <c r="D78" s="1"/>
       <c r="E78" s="1"/>
-      <c r="F78" s="1"/>
+      <c r="F78" s="36"/>
     </row>
     <row r="79" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C79" s="1"/>
       <c r="D79" s="1"/>
       <c r="E79" s="1"/>
-      <c r="F79" s="1"/>
+      <c r="F79" s="36"/>
     </row>
     <row r="80" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C80" s="1"/>
       <c r="D80" s="1"/>
       <c r="E80" s="1"/>
-      <c r="F80" s="1"/>
+      <c r="F80" s="36"/>
     </row>
     <row r="81" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C81" s="1"/>
       <c r="D81" s="1"/>
       <c r="E81" s="1"/>
-      <c r="F81" s="1"/>
+      <c r="F81" s="36"/>
     </row>
     <row r="82" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C82" s="1"/>
       <c r="D82" s="1"/>
       <c r="E82" s="1"/>
-      <c r="F82" s="1"/>
+      <c r="F82" s="36"/>
     </row>
     <row r="83" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C83" s="1"/>
       <c r="D83" s="1"/>
       <c r="E83" s="1"/>
-      <c r="F83" s="1"/>
+      <c r="F83" s="36"/>
     </row>
     <row r="84" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C84" s="1"/>
       <c r="D84" s="1"/>
       <c r="E84" s="1"/>
-      <c r="F84" s="1"/>
+      <c r="F84" s="36"/>
     </row>
     <row r="85" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C85" s="1"/>
       <c r="D85" s="1"/>
       <c r="E85" s="1"/>
-      <c r="F85" s="1"/>
+      <c r="F85" s="36"/>
     </row>
     <row r="86" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C86" s="1"/>
       <c r="D86" s="1"/>
       <c r="E86" s="1"/>
-      <c r="F86" s="1"/>
+      <c r="F86" s="36"/>
     </row>
     <row r="87" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C87" s="1"/>
       <c r="D87" s="1"/>
       <c r="E87" s="1"/>
-      <c r="F87" s="1"/>
+      <c r="F87" s="36"/>
     </row>
     <row r="88" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C88" s="1"/>
       <c r="D88" s="1"/>
       <c r="E88" s="1"/>
-      <c r="F88" s="1"/>
+      <c r="F88" s="36"/>
     </row>
     <row r="89" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C89" s="1"/>
       <c r="D89" s="1"/>
       <c r="E89" s="1"/>
-      <c r="F89" s="1"/>
+      <c r="F89" s="36"/>
     </row>
     <row r="90" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C90" s="1"/>
       <c r="D90" s="1"/>
       <c r="E90" s="1"/>
-      <c r="F90" s="1"/>
+      <c r="F90" s="36"/>
     </row>
     <row r="91" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C91" s="1"/>
       <c r="D91" s="1"/>
       <c r="E91" s="1"/>
-      <c r="F91" s="1"/>
+      <c r="F91" s="36"/>
     </row>
     <row r="92" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C92" s="1"/>
       <c r="D92" s="1"/>
       <c r="E92" s="1"/>
-      <c r="F92" s="1"/>
+      <c r="F92" s="36"/>
     </row>
     <row r="93" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C93" s="1"/>
       <c r="D93" s="1"/>
       <c r="E93" s="1"/>
-      <c r="F93" s="1"/>
+      <c r="F93" s="36"/>
     </row>
     <row r="94" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C94" s="1"/>
       <c r="D94" s="1"/>
       <c r="E94" s="1"/>
-      <c r="F94" s="1"/>
+      <c r="F94" s="36"/>
     </row>
     <row r="95" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C95" s="1"/>
       <c r="D95" s="1"/>
       <c r="E95" s="1"/>
-      <c r="F95" s="1"/>
+      <c r="F95" s="36"/>
     </row>
     <row r="96" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C96" s="1"/>
       <c r="D96" s="1"/>
       <c r="E96" s="1"/>
-      <c r="F96" s="1"/>
+      <c r="F96" s="36"/>
     </row>
     <row r="97" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C97" s="1"/>
       <c r="D97" s="1"/>
       <c r="E97" s="1"/>
-      <c r="F97" s="1"/>
+      <c r="F97" s="36"/>
     </row>
     <row r="98" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C98" s="1"/>
       <c r="D98" s="1"/>
       <c r="E98" s="1"/>
-      <c r="F98" s="1"/>
+      <c r="F98" s="36"/>
     </row>
     <row r="99" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C99" s="1"/>
       <c r="D99" s="1"/>
       <c r="E99" s="1"/>
-      <c r="F99" s="1"/>
+      <c r="F99" s="36"/>
     </row>
     <row r="100" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C100" s="1"/>
       <c r="D100" s="1"/>
       <c r="E100" s="1"/>
-      <c r="F100" s="1"/>
+      <c r="F100" s="36"/>
     </row>
     <row r="101" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C101" s="1"/>
       <c r="D101" s="1"/>
       <c r="E101" s="1"/>
-      <c r="F101" s="1"/>
+      <c r="F101" s="36"/>
     </row>
     <row r="102" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C102" s="1"/>
       <c r="D102" s="1"/>
       <c r="E102" s="1"/>
-      <c r="F102" s="1"/>
+      <c r="F102" s="36"/>
     </row>
     <row r="103" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C103" s="1"/>
       <c r="D103" s="1"/>
       <c r="E103" s="1"/>
-      <c r="F103" s="1"/>
+      <c r="F103" s="36"/>
     </row>
     <row r="104" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C104" s="1"/>
       <c r="D104" s="1"/>
       <c r="E104" s="1"/>
-      <c r="F104" s="1"/>
+      <c r="F104" s="36"/>
     </row>
     <row r="105" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C105" s="1"/>
       <c r="D105" s="1"/>
       <c r="E105" s="1"/>
-      <c r="F105" s="1"/>
+      <c r="F105" s="36"/>
     </row>
     <row r="106" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C106" s="1"/>
       <c r="D106" s="1"/>
       <c r="E106" s="1"/>
-      <c r="F106" s="1"/>
+      <c r="F106" s="36"/>
     </row>
     <row r="107" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C107" s="1"/>
       <c r="D107" s="1"/>
       <c r="E107" s="1"/>
-      <c r="F107" s="1"/>
+      <c r="F107" s="36"/>
     </row>
     <row r="108" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C108" s="1"/>
       <c r="D108" s="1"/>
       <c r="E108" s="1"/>
-      <c r="F108" s="1"/>
+      <c r="F108" s="36"/>
     </row>
     <row r="109" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C109" s="1"/>
       <c r="D109" s="1"/>
       <c r="E109" s="1"/>
-      <c r="F109" s="1"/>
+      <c r="F109" s="36"/>
     </row>
     <row r="110" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C110" s="1"/>
       <c r="D110" s="1"/>
       <c r="E110" s="1"/>
-      <c r="F110" s="1"/>
+      <c r="F110" s="36"/>
     </row>
     <row r="111" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C111" s="1"/>
       <c r="D111" s="1"/>
       <c r="E111" s="1"/>
-      <c r="F111" s="1"/>
+      <c r="F111" s="36"/>
     </row>
     <row r="112" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C112" s="1"/>
       <c r="D112" s="1"/>
       <c r="E112" s="1"/>
-      <c r="F112" s="1"/>
+      <c r="F112" s="36"/>
     </row>
     <row r="113" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C113" s="1"/>
       <c r="D113" s="1"/>
       <c r="E113" s="1"/>
-      <c r="F113" s="1"/>
+      <c r="F113" s="36"/>
     </row>
     <row r="114" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C114" s="1"/>
       <c r="D114" s="1"/>
       <c r="E114" s="1"/>
-      <c r="F114" s="1"/>
+      <c r="F114" s="36"/>
     </row>
     <row r="115" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C115" s="1"/>
       <c r="D115" s="1"/>
       <c r="E115" s="1"/>
-      <c r="F115" s="1"/>
+      <c r="F115" s="36"/>
     </row>
     <row r="116" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C116" s="1"/>
       <c r="D116" s="1"/>
       <c r="E116" s="1"/>
-      <c r="F116" s="1"/>
+      <c r="F116" s="36"/>
     </row>
     <row r="117" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C117" s="1"/>
       <c r="D117" s="1"/>
       <c r="E117" s="1"/>
-      <c r="F117" s="1"/>
+      <c r="F117" s="36"/>
     </row>
     <row r="118" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C118" s="1"/>
       <c r="D118" s="1"/>
       <c r="E118" s="1"/>
-      <c r="F118" s="1"/>
+      <c r="F118" s="36"/>
     </row>
     <row r="119" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C119" s="1"/>
       <c r="D119" s="1"/>
       <c r="E119" s="1"/>
-      <c r="F119" s="1"/>
+      <c r="F119" s="36"/>
     </row>
     <row r="120" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C120" s="1"/>
       <c r="D120" s="1"/>
       <c r="E120" s="1"/>
-      <c r="F120" s="1"/>
+      <c r="F120" s="36"/>
     </row>
     <row r="121" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C121" s="1"/>
       <c r="D121" s="1"/>
       <c r="E121" s="1"/>
-      <c r="F121" s="1"/>
+      <c r="F121" s="36"/>
     </row>
     <row r="122" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C122" s="1"/>
       <c r="D122" s="1"/>
       <c r="E122" s="1"/>
-      <c r="F122" s="1"/>
+      <c r="F122" s="36"/>
     </row>
     <row r="123" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C123" s="1"/>
       <c r="D123" s="1"/>
       <c r="E123" s="1"/>
-      <c r="F123" s="1"/>
+      <c r="F123" s="36"/>
     </row>
     <row r="124" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C124" s="1"/>
       <c r="D124" s="1"/>
       <c r="E124" s="1"/>
-      <c r="F124" s="1"/>
+      <c r="F124" s="36"/>
     </row>
     <row r="125" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C125" s="1"/>
       <c r="D125" s="1"/>
       <c r="E125" s="1"/>
-      <c r="F125" s="1"/>
+      <c r="F125" s="36"/>
     </row>
     <row r="126" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C126" s="1"/>
       <c r="D126" s="1"/>
       <c r="E126" s="1"/>
-      <c r="F126" s="1"/>
+      <c r="F126" s="36"/>
     </row>
     <row r="127" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C127" s="1"/>
       <c r="D127" s="1"/>
       <c r="E127" s="1"/>
-      <c r="F127" s="1"/>
+      <c r="F127" s="36"/>
     </row>
     <row r="128" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C128" s="1"/>
       <c r="D128" s="1"/>
       <c r="E128" s="1"/>
-      <c r="F128" s="1"/>
+      <c r="F128" s="36"/>
     </row>
     <row r="129" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C129" s="1"/>
       <c r="D129" s="1"/>
       <c r="E129" s="1"/>
-      <c r="F129" s="1"/>
+      <c r="F129" s="36"/>
     </row>
     <row r="130" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C130" s="1"/>
       <c r="D130" s="1"/>
       <c r="E130" s="1"/>
-      <c r="F130" s="1"/>
+      <c r="F130" s="36"/>
     </row>
     <row r="131" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C131" s="1"/>
       <c r="D131" s="1"/>
       <c r="E131" s="1"/>
-      <c r="F131" s="1"/>
+      <c r="F131" s="36"/>
     </row>
     <row r="132" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C132" s="1"/>
       <c r="D132" s="1"/>
       <c r="E132" s="1"/>
-      <c r="F132" s="1"/>
+      <c r="F132" s="36"/>
     </row>
     <row r="133" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C133" s="1"/>
       <c r="D133" s="1"/>
       <c r="E133" s="1"/>
-      <c r="F133" s="1"/>
+      <c r="F133" s="36"/>
     </row>
     <row r="134" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C134" s="1"/>
       <c r="D134" s="1"/>
       <c r="E134" s="1"/>
-      <c r="F134" s="1"/>
+      <c r="F134" s="36"/>
     </row>
     <row r="135" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C135" s="1"/>
       <c r="D135" s="1"/>
       <c r="E135" s="1"/>
-      <c r="F135" s="1"/>
+      <c r="F135" s="36"/>
     </row>
     <row r="136" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C136" s="1"/>
       <c r="D136" s="1"/>
       <c r="E136" s="1"/>
-      <c r="F136" s="1"/>
+      <c r="F136" s="36"/>
     </row>
     <row r="137" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C137" s="1"/>
       <c r="D137" s="1"/>
       <c r="E137" s="1"/>
-      <c r="F137" s="1"/>
+      <c r="F137" s="36"/>
     </row>
     <row r="138" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C138" s="1"/>
       <c r="D138" s="1"/>
       <c r="E138" s="1"/>
-      <c r="F138" s="1"/>
+      <c r="F138" s="36"/>
     </row>
     <row r="139" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C139" s="1"/>
       <c r="D139" s="1"/>
       <c r="E139" s="1"/>
-      <c r="F139" s="1"/>
+      <c r="F139" s="36"/>
     </row>
     <row r="140" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C140" s="1"/>
       <c r="D140" s="1"/>
       <c r="E140" s="1"/>
-      <c r="F140" s="1"/>
+      <c r="F140" s="36"/>
     </row>
     <row r="141" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C141" s="1"/>
       <c r="D141" s="1"/>
       <c r="E141" s="1"/>
-      <c r="F141" s="1"/>
+      <c r="F141" s="36"/>
     </row>
     <row r="142" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C142" s="1"/>
       <c r="D142" s="1"/>
       <c r="E142" s="1"/>
-      <c r="F142" s="1"/>
+      <c r="F142" s="36"/>
     </row>
     <row r="143" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C143" s="1"/>
       <c r="D143" s="1"/>
       <c r="E143" s="1"/>
-      <c r="F143" s="1"/>
+      <c r="F143" s="36"/>
     </row>
     <row r="144" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C144" s="1"/>
       <c r="D144" s="1"/>
       <c r="E144" s="1"/>
-      <c r="F144" s="1"/>
+      <c r="F144" s="36"/>
     </row>
     <row r="145" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C145" s="1"/>
       <c r="D145" s="1"/>
       <c r="E145" s="1"/>
-      <c r="F145" s="1"/>
+      <c r="F145" s="36"/>
     </row>
     <row r="146" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C146" s="1"/>
       <c r="D146" s="1"/>
       <c r="E146" s="1"/>
-      <c r="F146" s="1"/>
+      <c r="F146" s="36"/>
     </row>
     <row r="147" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C147" s="1"/>
       <c r="D147" s="1"/>
       <c r="E147" s="1"/>
-      <c r="F147" s="1"/>
+      <c r="F147" s="36"/>
     </row>
     <row r="148" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C148" s="1"/>
       <c r="D148" s="1"/>
       <c r="E148" s="1"/>
-      <c r="F148" s="1"/>
+      <c r="F148" s="36"/>
     </row>
     <row r="149" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C149" s="1"/>
       <c r="D149" s="1"/>
       <c r="E149" s="1"/>
-      <c r="F149" s="1"/>
+      <c r="F149" s="36"/>
     </row>
     <row r="150" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C150" s="1"/>
       <c r="D150" s="1"/>
       <c r="E150" s="1"/>
-      <c r="F150" s="1"/>
+      <c r="F150" s="36"/>
     </row>
     <row r="151" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C151" s="1"/>
       <c r="D151" s="1"/>
       <c r="E151" s="1"/>
-      <c r="F151" s="1"/>
+      <c r="F151" s="36"/>
     </row>
     <row r="152" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C152" s="1"/>
       <c r="D152" s="1"/>
       <c r="E152" s="1"/>
-      <c r="F152" s="1"/>
+      <c r="F152" s="36"/>
     </row>
     <row r="153" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C153" s="1"/>
       <c r="D153" s="1"/>
       <c r="E153" s="1"/>
-      <c r="F153" s="1"/>
+      <c r="F153" s="36"/>
     </row>
     <row r="154" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C154" s="1"/>
       <c r="D154" s="1"/>
       <c r="E154" s="1"/>
-      <c r="F154" s="1"/>
+      <c r="F154" s="36"/>
     </row>
     <row r="155" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C155" s="1"/>
       <c r="D155" s="1"/>
       <c r="E155" s="1"/>
-      <c r="F155" s="1"/>
+      <c r="F155" s="36"/>
     </row>
     <row r="156" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C156" s="1"/>
       <c r="D156" s="1"/>
       <c r="E156" s="1"/>
-      <c r="F156" s="1"/>
+      <c r="F156" s="36"/>
     </row>
     <row r="157" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C157" s="1"/>
       <c r="D157" s="1"/>
       <c r="E157" s="1"/>
-      <c r="F157" s="1"/>
+      <c r="F157" s="36"/>
     </row>
     <row r="158" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C158" s="1"/>
       <c r="D158" s="1"/>
       <c r="E158" s="1"/>
-      <c r="F158" s="1"/>
+      <c r="F158" s="36"/>
     </row>
     <row r="159" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C159" s="1"/>
       <c r="D159" s="1"/>
       <c r="E159" s="1"/>
-      <c r="F159" s="1"/>
+      <c r="F159" s="36"/>
     </row>
     <row r="160" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C160" s="1"/>
       <c r="D160" s="1"/>
       <c r="E160" s="1"/>
-      <c r="F160" s="1"/>
+      <c r="F160" s="36"/>
     </row>
     <row r="161" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C161" s="1"/>
       <c r="D161" s="1"/>
       <c r="E161" s="1"/>
-      <c r="F161" s="1"/>
+      <c r="F161" s="36"/>
     </row>
     <row r="162" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C162" s="1"/>
       <c r="D162" s="1"/>
       <c r="E162" s="1"/>
-      <c r="F162" s="1"/>
+      <c r="F162" s="36"/>
     </row>
     <row r="163" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C163" s="1"/>
       <c r="D163" s="1"/>
       <c r="E163" s="1"/>
-      <c r="F163" s="1"/>
+      <c r="F163" s="36"/>
     </row>
     <row r="164" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C164" s="1"/>
       <c r="D164" s="1"/>
       <c r="E164" s="1"/>
-      <c r="F164" s="1"/>
+      <c r="F164" s="36"/>
     </row>
     <row r="165" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C165" s="1"/>
       <c r="D165" s="1"/>
       <c r="E165" s="1"/>
-      <c r="F165" s="1"/>
+      <c r="F165" s="36"/>
     </row>
     <row r="166" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C166" s="1"/>
       <c r="D166" s="1"/>
       <c r="E166" s="1"/>
-      <c r="F166" s="1"/>
+      <c r="F166" s="36"/>
     </row>
     <row r="167" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C167" s="1"/>
       <c r="D167" s="1"/>
       <c r="E167" s="1"/>
-      <c r="F167" s="1"/>
+      <c r="F167" s="36"/>
     </row>
     <row r="168" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C168" s="1"/>
       <c r="D168" s="1"/>
       <c r="E168" s="1"/>
-      <c r="F168" s="1"/>
+      <c r="F168" s="36"/>
     </row>
     <row r="169" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C169" s="1"/>
       <c r="D169" s="1"/>
       <c r="E169" s="1"/>
-      <c r="F169" s="1"/>
+      <c r="F169" s="36"/>
     </row>
     <row r="170" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C170" s="1"/>
       <c r="D170" s="1"/>
       <c r="E170" s="1"/>
-      <c r="F170" s="1"/>
+      <c r="F170" s="36"/>
     </row>
     <row r="171" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C171" s="1"/>
       <c r="D171" s="1"/>
       <c r="E171" s="1"/>
-      <c r="F171" s="1"/>
+      <c r="F171" s="36"/>
     </row>
     <row r="172" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C172" s="1"/>
       <c r="D172" s="1"/>
       <c r="E172" s="1"/>
-      <c r="F172" s="1"/>
+      <c r="F172" s="36"/>
     </row>
     <row r="173" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C173" s="1"/>
       <c r="D173" s="1"/>
       <c r="E173" s="1"/>
-      <c r="F173" s="1"/>
+      <c r="F173" s="36"/>
     </row>
     <row r="174" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C174" s="1"/>
       <c r="D174" s="1"/>
       <c r="E174" s="1"/>
-      <c r="F174" s="1"/>
+      <c r="F174" s="36"/>
     </row>
     <row r="175" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C175" s="1"/>
       <c r="D175" s="1"/>
       <c r="E175" s="1"/>
-      <c r="F175" s="1"/>
+      <c r="F175" s="36"/>
     </row>
     <row r="176" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C176" s="1"/>
       <c r="D176" s="1"/>
       <c r="E176" s="1"/>
-      <c r="F176" s="1"/>
+      <c r="F176" s="36"/>
     </row>
     <row r="177" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C177" s="1"/>
       <c r="D177" s="1"/>
       <c r="E177" s="1"/>
-      <c r="F177" s="1"/>
+      <c r="F177" s="36"/>
     </row>
     <row r="178" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C178" s="1"/>
       <c r="D178" s="1"/>
       <c r="E178" s="1"/>
-      <c r="F178" s="1"/>
+      <c r="F178" s="36"/>
     </row>
     <row r="179" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C179" s="1"/>
       <c r="D179" s="1"/>
       <c r="E179" s="1"/>
-      <c r="F179" s="1"/>
+      <c r="F179" s="36"/>
     </row>
     <row r="180" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C180" s="1"/>
       <c r="D180" s="1"/>
       <c r="E180" s="1"/>
-      <c r="F180" s="1"/>
+      <c r="F180" s="36"/>
     </row>
     <row r="181" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C181" s="1"/>
       <c r="D181" s="1"/>
       <c r="E181" s="1"/>
-      <c r="F181" s="1"/>
+      <c r="F181" s="36"/>
     </row>
     <row r="182" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C182" s="1"/>
       <c r="D182" s="1"/>
       <c r="E182" s="1"/>
-      <c r="F182" s="1"/>
+      <c r="F182" s="36"/>
     </row>
     <row r="183" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C183" s="1"/>
       <c r="D183" s="1"/>
       <c r="E183" s="1"/>
-      <c r="F183" s="1"/>
+      <c r="F183" s="36"/>
     </row>
     <row r="184" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C184" s="1"/>
       <c r="D184" s="1"/>
       <c r="E184" s="1"/>
-      <c r="F184" s="1"/>
+      <c r="F184" s="36"/>
     </row>
     <row r="185" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C185" s="1"/>
       <c r="D185" s="1"/>
       <c r="E185" s="1"/>
-      <c r="F185" s="1"/>
+      <c r="F185" s="36"/>
     </row>
     <row r="186" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C186" s="1"/>
       <c r="D186" s="1"/>
       <c r="E186" s="1"/>
-      <c r="F186" s="1"/>
+      <c r="F186" s="36"/>
     </row>
     <row r="187" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C187" s="1"/>
       <c r="D187" s="1"/>
       <c r="E187" s="1"/>
-      <c r="F187" s="1"/>
+      <c r="F187" s="36"/>
     </row>
     <row r="188" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C188" s="1"/>
       <c r="D188" s="1"/>
       <c r="E188" s="1"/>
-      <c r="F188" s="1"/>
+      <c r="F188" s="36"/>
     </row>
     <row r="189" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C189" s="1"/>
       <c r="D189" s="1"/>
       <c r="E189" s="1"/>
-      <c r="F189" s="1"/>
+      <c r="F189" s="36"/>
     </row>
     <row r="190" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C190" s="1"/>
       <c r="D190" s="1"/>
       <c r="E190" s="1"/>
-      <c r="F190" s="1"/>
+      <c r="F190" s="36"/>
     </row>
     <row r="191" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C191" s="1"/>
       <c r="D191" s="1"/>
       <c r="E191" s="1"/>
-      <c r="F191" s="1"/>
+      <c r="F191" s="36"/>
     </row>
     <row r="192" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C192" s="1"/>
       <c r="D192" s="1"/>
       <c r="E192" s="1"/>
-      <c r="F192" s="1"/>
+      <c r="F192" s="36"/>
+    </row>
+    <row r="193" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C193" s="1"/>
+      <c r="D193" s="1"/>
+      <c r="E193" s="1"/>
+      <c r="F193" s="36"/>
+    </row>
+    <row r="194" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C194" s="1"/>
+      <c r="D194" s="1"/>
+      <c r="E194" s="1"/>
+      <c r="F194" s="36"/>
+    </row>
+    <row r="195" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C195" s="1"/>
+      <c r="D195" s="1"/>
+      <c r="E195" s="1"/>
+      <c r="F195" s="36"/>
+    </row>
+    <row r="196" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C196" s="1"/>
+      <c r="D196" s="1"/>
+      <c r="E196" s="1"/>
+      <c r="F196" s="36"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="C31 E31:F31 C4:F30">
+  <conditionalFormatting sqref="D4:D7 D12:D34">
+    <cfRule type="iconSet" priority="6">
+      <iconSet iconSet="3Symbols2" showValue="0">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="33"/>
+        <cfvo type="percent" val="67"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D35">
+    <cfRule type="iconSet" priority="5">
+      <iconSet iconSet="3Symbols2" showValue="0">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="33"/>
+        <cfvo type="percent" val="67"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D8">
+    <cfRule type="iconSet" priority="4">
+      <iconSet iconSet="3Symbols2" showValue="0">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="33"/>
+        <cfvo type="percent" val="67"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D9">
+    <cfRule type="iconSet" priority="3">
+      <iconSet iconSet="3Symbols2" showValue="0">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="33"/>
+        <cfvo type="percent" val="67"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D10">
     <cfRule type="iconSet" priority="2">
       <iconSet iconSet="3Symbols2" showValue="0">
         <cfvo type="percent" val="0"/>
@@ -2830,7 +2968,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D31">
+  <conditionalFormatting sqref="D11">
     <cfRule type="iconSet" priority="1">
       <iconSet iconSet="3Symbols2" showValue="0">
         <cfvo type="percent" val="0"/>
@@ -2854,607 +2992,607 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.85546875" style="19" customWidth="1"/>
-    <col min="2" max="2" width="23" style="19" customWidth="1"/>
-    <col min="3" max="3" width="24.42578125" style="19" customWidth="1"/>
-    <col min="4" max="4" width="23.140625" style="20" customWidth="1"/>
-    <col min="5" max="5" width="6.140625" style="20" customWidth="1"/>
-    <col min="6" max="6" width="23" style="21" customWidth="1"/>
-    <col min="7" max="7" width="5.7109375" style="20" customWidth="1"/>
-    <col min="8" max="8" width="20.7109375" style="21" customWidth="1"/>
-    <col min="9" max="9" width="5.7109375" style="20" customWidth="1"/>
-    <col min="10" max="10" width="23.7109375" style="21" customWidth="1"/>
-    <col min="11" max="11" width="5.7109375" style="20" customWidth="1"/>
-    <col min="12" max="12" width="6.28515625" style="21" customWidth="1"/>
-    <col min="13" max="13" width="16.85546875" style="19" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="19"/>
+    <col min="1" max="1" width="3.85546875" style="15" customWidth="1"/>
+    <col min="2" max="2" width="23" style="15" customWidth="1"/>
+    <col min="3" max="3" width="24.42578125" style="15" customWidth="1"/>
+    <col min="4" max="4" width="23.140625" style="16" customWidth="1"/>
+    <col min="5" max="5" width="6.140625" style="16" customWidth="1"/>
+    <col min="6" max="6" width="23" style="17" customWidth="1"/>
+    <col min="7" max="7" width="5.7109375" style="16" customWidth="1"/>
+    <col min="8" max="8" width="20.7109375" style="17" customWidth="1"/>
+    <col min="9" max="9" width="5.7109375" style="16" customWidth="1"/>
+    <col min="10" max="10" width="23.7109375" style="17" customWidth="1"/>
+    <col min="11" max="11" width="5.7109375" style="16" customWidth="1"/>
+    <col min="12" max="12" width="6.28515625" style="17" customWidth="1"/>
+    <col min="13" max="13" width="16.85546875" style="15" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="15"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="C1" s="20"/>
-      <c r="E1" s="21"/>
-      <c r="F1" s="20"/>
-      <c r="G1" s="21"/>
-      <c r="H1" s="20"/>
-      <c r="I1" s="21"/>
-      <c r="J1" s="20"/>
-      <c r="K1" s="21"/>
-      <c r="L1" s="19"/>
-    </row>
-    <row r="2" spans="2:12" s="18" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="22" t="s">
+      <c r="C1" s="16"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="16"/>
+      <c r="G1" s="17"/>
+      <c r="H1" s="16"/>
+      <c r="I1" s="17"/>
+      <c r="J1" s="16"/>
+      <c r="K1" s="17"/>
+      <c r="L1" s="15"/>
+    </row>
+    <row r="2" spans="2:12" s="14" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="18" t="s">
         <v>55</v>
       </c>
-      <c r="C2" s="22" t="s">
+      <c r="C2" s="18" t="s">
         <v>56</v>
       </c>
-      <c r="D2" s="29" t="s">
+      <c r="D2" s="25" t="s">
         <v>53</v>
       </c>
-      <c r="E2" s="29" t="s">
+      <c r="E2" s="25" t="s">
         <v>61</v>
       </c>
-      <c r="F2" s="29" t="s">
+      <c r="F2" s="25" t="s">
         <v>51</v>
       </c>
-      <c r="G2" s="29" t="s">
+      <c r="G2" s="25" t="s">
         <v>62</v>
       </c>
-      <c r="H2" s="29" t="s">
+      <c r="H2" s="25" t="s">
         <v>52</v>
       </c>
-      <c r="I2" s="29" t="s">
+      <c r="I2" s="25" t="s">
         <v>63</v>
       </c>
-      <c r="J2" s="29" t="s">
+      <c r="J2" s="25" t="s">
         <v>54</v>
       </c>
-      <c r="K2" s="29" t="s">
+      <c r="K2" s="25" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="3" spans="2:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="B3" s="20" t="s">
+      <c r="B3" s="16" t="s">
         <v>88</v>
       </c>
-      <c r="C3" s="27" t="s">
+      <c r="C3" s="23" t="s">
         <v>89</v>
       </c>
-      <c r="D3" s="20" t="s">
+      <c r="D3" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="E3" s="25">
+      <c r="E3" s="21">
         <v>3</v>
       </c>
-      <c r="F3" s="20" t="s">
+      <c r="F3" s="16" t="s">
         <v>86</v>
       </c>
-      <c r="G3" s="25">
+      <c r="G3" s="21">
         <v>0</v>
       </c>
-      <c r="H3" s="20" t="s">
+      <c r="H3" s="16" t="s">
         <v>87</v>
       </c>
-      <c r="I3" s="25">
+      <c r="I3" s="21">
         <v>0</v>
       </c>
-      <c r="J3" s="20" t="s">
+      <c r="J3" s="16" t="s">
         <v>99</v>
       </c>
-      <c r="K3" s="26">
+      <c r="K3" s="22">
         <v>3</v>
       </c>
-      <c r="L3" s="19"/>
+      <c r="L3" s="15"/>
     </row>
     <row r="4" spans="2:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="B4" s="24" t="s">
+      <c r="B4" s="20" t="s">
         <v>70</v>
       </c>
-      <c r="C4" s="27" t="s">
+      <c r="C4" s="23" t="s">
         <v>125</v>
       </c>
-      <c r="D4" s="27" t="s">
+      <c r="D4" s="23" t="s">
         <v>121</v>
       </c>
-      <c r="E4" s="25">
+      <c r="E4" s="21">
         <v>1</v>
       </c>
-      <c r="F4" s="27" t="s">
+      <c r="F4" s="23" t="s">
         <v>123</v>
       </c>
-      <c r="G4" s="25">
+      <c r="G4" s="21">
         <v>0</v>
       </c>
-      <c r="H4" s="20" t="s">
+      <c r="H4" s="16" t="s">
         <v>124</v>
       </c>
-      <c r="I4" s="25">
+      <c r="I4" s="21">
         <v>0</v>
       </c>
-      <c r="J4" s="20" t="s">
+      <c r="J4" s="16" t="s">
         <v>122</v>
       </c>
-      <c r="K4" s="25">
+      <c r="K4" s="21">
         <v>1</v>
       </c>
-      <c r="L4" s="19"/>
+      <c r="L4" s="15"/>
     </row>
     <row r="5" spans="2:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="B5" s="20" t="s">
+      <c r="B5" s="16" t="s">
         <v>70</v>
       </c>
-      <c r="C5" s="27" t="s">
+      <c r="C5" s="23" t="s">
         <v>73</v>
       </c>
-      <c r="D5" s="20" t="s">
+      <c r="D5" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="E5" s="25">
+      <c r="E5" s="21">
         <v>3</v>
       </c>
-      <c r="F5" s="20" t="s">
+      <c r="F5" s="16" t="s">
         <v>72</v>
       </c>
-      <c r="G5" s="25">
+      <c r="G5" s="21">
         <v>3</v>
       </c>
-      <c r="H5" s="20" t="s">
+      <c r="H5" s="16" t="s">
         <v>71</v>
       </c>
-      <c r="I5" s="25">
+      <c r="I5" s="21">
         <v>0</v>
       </c>
-      <c r="J5" s="20"/>
-      <c r="K5" s="26"/>
-      <c r="L5" s="19"/>
+      <c r="J5" s="16"/>
+      <c r="K5" s="22"/>
+      <c r="L5" s="15"/>
     </row>
     <row r="6" spans="2:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="B6" s="20" t="s">
+      <c r="B6" s="16" t="s">
         <v>70</v>
       </c>
-      <c r="C6" s="27" t="s">
+      <c r="C6" s="23" t="s">
         <v>81</v>
       </c>
-      <c r="D6" s="20" t="s">
+      <c r="D6" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="E6" s="25">
+      <c r="E6" s="21">
         <v>3</v>
       </c>
-      <c r="F6" s="20" t="s">
+      <c r="F6" s="16" t="s">
         <v>82</v>
       </c>
-      <c r="G6" s="25">
+      <c r="G6" s="21">
         <v>1</v>
       </c>
-      <c r="H6" s="20" t="s">
+      <c r="H6" s="16" t="s">
         <v>71</v>
       </c>
-      <c r="I6" s="25">
+      <c r="I6" s="21">
         <v>0</v>
       </c>
-      <c r="J6" s="20"/>
-      <c r="K6" s="26"/>
-      <c r="L6" s="19"/>
+      <c r="J6" s="16"/>
+      <c r="K6" s="22"/>
+      <c r="L6" s="15"/>
     </row>
     <row r="7" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B7" s="20" t="s">
+      <c r="B7" s="16" t="s">
         <v>70</v>
       </c>
-      <c r="C7" s="27" t="s">
+      <c r="C7" s="23" t="s">
         <v>112</v>
       </c>
-      <c r="D7" s="24" t="s">
+      <c r="D7" s="20" t="s">
         <v>146</v>
       </c>
-      <c r="E7" s="25">
+      <c r="E7" s="21">
         <v>3</v>
       </c>
-      <c r="F7" s="20" t="s">
+      <c r="F7" s="16" t="s">
         <v>114</v>
       </c>
-      <c r="G7" s="25"/>
-      <c r="H7" s="20" t="s">
+      <c r="G7" s="21"/>
+      <c r="H7" s="16" t="s">
         <v>115</v>
       </c>
-      <c r="I7" s="25">
+      <c r="I7" s="21">
         <v>0</v>
       </c>
-      <c r="J7" s="20" t="s">
+      <c r="J7" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="K7" s="25">
+      <c r="K7" s="21">
         <v>1</v>
       </c>
-      <c r="L7" s="19"/>
+      <c r="L7" s="15"/>
     </row>
     <row r="8" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B8" s="20" t="s">
+      <c r="B8" s="16" t="s">
         <v>70</v>
       </c>
-      <c r="C8" s="27" t="s">
+      <c r="C8" s="23" t="s">
         <v>113</v>
       </c>
-      <c r="D8" s="24" t="s">
+      <c r="D8" s="20" t="s">
         <v>145</v>
       </c>
-      <c r="E8" s="25">
+      <c r="E8" s="21">
         <v>3</v>
       </c>
-      <c r="F8" s="20"/>
-      <c r="G8" s="25"/>
-      <c r="H8" s="20"/>
-      <c r="I8" s="25"/>
-      <c r="J8" s="20"/>
-      <c r="K8" s="25"/>
-      <c r="L8" s="19"/>
+      <c r="F8" s="16"/>
+      <c r="G8" s="21"/>
+      <c r="H8" s="16"/>
+      <c r="I8" s="21"/>
+      <c r="J8" s="16"/>
+      <c r="K8" s="21"/>
+      <c r="L8" s="15"/>
     </row>
     <row r="9" spans="2:12" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="20" t="s">
+      <c r="B9" s="16" t="s">
         <v>70</v>
       </c>
-      <c r="C9" s="27" t="s">
+      <c r="C9" s="23" t="s">
         <v>97</v>
       </c>
-      <c r="D9" s="20" t="s">
+      <c r="D9" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="E9" s="25">
+      <c r="E9" s="21">
         <v>3</v>
       </c>
-      <c r="F9" s="20" t="s">
+      <c r="F9" s="16" t="s">
         <v>98</v>
       </c>
-      <c r="G9" s="25">
+      <c r="G9" s="21">
         <v>0</v>
       </c>
-      <c r="H9" s="20" t="s">
+      <c r="H9" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="I9" s="25">
+      <c r="I9" s="21">
         <v>0</v>
       </c>
-      <c r="J9" s="20"/>
-      <c r="K9" s="26"/>
-      <c r="L9" s="19"/>
+      <c r="J9" s="16"/>
+      <c r="K9" s="22"/>
+      <c r="L9" s="15"/>
     </row>
     <row r="10" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B10" s="20" t="s">
+      <c r="B10" s="16" t="s">
         <v>70</v>
       </c>
-      <c r="C10" s="27" t="s">
+      <c r="C10" s="23" t="s">
         <v>96</v>
       </c>
-      <c r="D10" s="20" t="s">
+      <c r="D10" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="E10" s="25">
+      <c r="E10" s="21">
         <v>3</v>
       </c>
-      <c r="F10" s="20" t="s">
+      <c r="F10" s="16" t="s">
         <v>74</v>
       </c>
-      <c r="G10" s="25">
+      <c r="G10" s="21">
         <v>1</v>
       </c>
-      <c r="H10" s="20" t="s">
+      <c r="H10" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="I10" s="25">
+      <c r="I10" s="21">
         <v>0</v>
       </c>
-      <c r="J10" s="20"/>
-      <c r="K10" s="25"/>
-      <c r="L10" s="19"/>
+      <c r="J10" s="16"/>
+      <c r="K10" s="21"/>
+      <c r="L10" s="15"/>
     </row>
     <row r="11" spans="2:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="B11" s="20" t="s">
+      <c r="B11" s="16" t="s">
         <v>128</v>
       </c>
-      <c r="C11" s="27" t="s">
+      <c r="C11" s="23" t="s">
         <v>109</v>
       </c>
-      <c r="D11" s="20" t="s">
+      <c r="D11" s="16" t="s">
         <v>144</v>
       </c>
-      <c r="E11" s="25">
+      <c r="E11" s="21">
         <v>3</v>
       </c>
-      <c r="F11" s="20" t="s">
+      <c r="F11" s="16" t="s">
         <v>103</v>
       </c>
-      <c r="G11" s="25">
+      <c r="G11" s="21">
         <v>0</v>
       </c>
-      <c r="H11" s="20" t="s">
+      <c r="H11" s="16" t="s">
         <v>102</v>
       </c>
-      <c r="I11" s="25">
+      <c r="I11" s="21">
         <v>1</v>
       </c>
-      <c r="J11" s="20"/>
-      <c r="K11" s="25"/>
-      <c r="L11" s="19"/>
+      <c r="J11" s="16"/>
+      <c r="K11" s="21"/>
+      <c r="L11" s="15"/>
     </row>
     <row r="12" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B12" s="20" t="s">
+      <c r="B12" s="16" t="s">
         <v>104</v>
       </c>
-      <c r="C12" s="27" t="s">
+      <c r="C12" s="23" t="s">
         <v>107</v>
       </c>
-      <c r="D12" s="20" t="s">
+      <c r="D12" s="16" t="s">
         <v>147</v>
       </c>
-      <c r="E12" s="25">
+      <c r="E12" s="21">
         <v>3</v>
       </c>
-      <c r="F12" s="20"/>
-      <c r="G12" s="25"/>
-      <c r="H12" s="20"/>
-      <c r="I12" s="25"/>
-      <c r="J12" s="20"/>
-      <c r="K12" s="26"/>
-      <c r="L12" s="19"/>
+      <c r="F12" s="16"/>
+      <c r="G12" s="21"/>
+      <c r="H12" s="16"/>
+      <c r="I12" s="21"/>
+      <c r="J12" s="16"/>
+      <c r="K12" s="22"/>
+      <c r="L12" s="15"/>
     </row>
     <row r="13" spans="2:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="B13" s="20" t="s">
+      <c r="B13" s="16" t="s">
         <v>141</v>
       </c>
-      <c r="C13" s="27" t="s">
+      <c r="C13" s="23" t="s">
         <v>139</v>
       </c>
-      <c r="D13" s="20" t="s">
+      <c r="D13" s="16" t="s">
         <v>140</v>
       </c>
-      <c r="E13" s="25"/>
-      <c r="F13" s="20"/>
-      <c r="G13" s="25"/>
-      <c r="H13" s="20"/>
-      <c r="I13" s="25"/>
-      <c r="J13" s="20"/>
-      <c r="K13" s="26"/>
-      <c r="L13" s="19"/>
+      <c r="E13" s="21"/>
+      <c r="F13" s="16"/>
+      <c r="G13" s="21"/>
+      <c r="H13" s="16"/>
+      <c r="I13" s="21"/>
+      <c r="J13" s="16"/>
+      <c r="K13" s="22"/>
+      <c r="L13" s="15"/>
     </row>
     <row r="14" spans="2:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="B14" s="20" t="s">
+      <c r="B14" s="16" t="s">
         <v>67</v>
       </c>
-      <c r="C14" s="27" t="s">
+      <c r="C14" s="23" t="s">
         <v>119</v>
       </c>
-      <c r="D14" s="20" t="s">
+      <c r="D14" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="E14" s="25">
+      <c r="E14" s="21">
         <v>3</v>
       </c>
-      <c r="F14" s="20"/>
-      <c r="G14" s="25"/>
-      <c r="H14" s="20"/>
-      <c r="I14" s="25"/>
-      <c r="J14" s="20" t="s">
+      <c r="F14" s="16"/>
+      <c r="G14" s="21"/>
+      <c r="H14" s="16"/>
+      <c r="I14" s="21"/>
+      <c r="J14" s="16" t="s">
         <v>120</v>
       </c>
-      <c r="K14" s="26"/>
-      <c r="L14" s="19"/>
+      <c r="K14" s="22"/>
+      <c r="L14" s="15"/>
     </row>
     <row r="15" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B15" s="20" t="s">
+      <c r="B15" s="16" t="s">
         <v>67</v>
       </c>
-      <c r="C15" s="27" t="s">
+      <c r="C15" s="23" t="s">
         <v>68</v>
       </c>
-      <c r="D15" s="20" t="s">
+      <c r="D15" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="E15" s="25">
+      <c r="E15" s="21">
         <v>1</v>
       </c>
-      <c r="F15" s="20" t="s">
+      <c r="F15" s="16" t="s">
         <v>65</v>
       </c>
-      <c r="G15" s="25">
+      <c r="G15" s="21">
         <v>0</v>
       </c>
-      <c r="H15" s="20" t="s">
+      <c r="H15" s="16" t="s">
         <v>66</v>
       </c>
-      <c r="I15" s="25">
+      <c r="I15" s="21">
         <v>0</v>
       </c>
-      <c r="J15" s="20"/>
-      <c r="K15" s="26"/>
-      <c r="L15" s="19"/>
+      <c r="J15" s="16"/>
+      <c r="K15" s="22"/>
+      <c r="L15" s="15"/>
     </row>
     <row r="16" spans="2:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="B16" s="20" t="s">
+      <c r="B16" s="16" t="s">
         <v>76</v>
       </c>
-      <c r="C16" s="27" t="s">
+      <c r="C16" s="23" t="s">
         <v>77</v>
       </c>
-      <c r="D16" s="20" t="s">
+      <c r="D16" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="E16" s="25">
+      <c r="E16" s="21">
         <v>1</v>
       </c>
-      <c r="F16" s="20" t="s">
+      <c r="F16" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="G16" s="25">
+      <c r="G16" s="21">
         <v>1</v>
       </c>
-      <c r="H16" s="20"/>
-      <c r="I16" s="25"/>
-      <c r="J16" s="20"/>
-      <c r="K16" s="26"/>
-      <c r="L16" s="19"/>
+      <c r="H16" s="16"/>
+      <c r="I16" s="21"/>
+      <c r="J16" s="16"/>
+      <c r="K16" s="22"/>
+      <c r="L16" s="15"/>
     </row>
     <row r="17" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="20" t="s">
+      <c r="B17" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="C17" s="27" t="s">
+      <c r="C17" s="23" t="s">
         <v>58</v>
       </c>
-      <c r="D17" s="24" t="s">
+      <c r="D17" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="E17" s="25">
+      <c r="E17" s="21">
         <v>3</v>
       </c>
-      <c r="F17" s="20" t="s">
+      <c r="F17" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="G17" s="25">
+      <c r="G17" s="21">
         <v>0</v>
       </c>
-      <c r="H17" s="20" t="s">
+      <c r="H17" s="16" t="s">
         <v>60</v>
       </c>
-      <c r="I17" s="25">
+      <c r="I17" s="21">
         <v>0</v>
       </c>
-      <c r="J17" s="20" t="s">
+      <c r="J17" s="16" t="s">
         <v>69</v>
       </c>
-      <c r="K17" s="26">
+      <c r="K17" s="22">
         <v>3</v>
       </c>
-      <c r="L17" s="19"/>
+      <c r="L17" s="15"/>
     </row>
     <row r="18" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B18" s="20" t="s">
+      <c r="B18" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="C18" s="27" t="s">
+      <c r="C18" s="23" t="s">
         <v>83</v>
       </c>
-      <c r="D18" s="24" t="s">
+      <c r="D18" s="20" t="s">
         <v>42</v>
       </c>
-      <c r="E18" s="25">
+      <c r="E18" s="21">
         <v>3</v>
       </c>
-      <c r="F18" s="20" t="s">
+      <c r="F18" s="16" t="s">
         <v>84</v>
       </c>
-      <c r="G18" s="25">
+      <c r="G18" s="21">
         <v>0</v>
       </c>
-      <c r="H18" s="20" t="s">
+      <c r="H18" s="16" t="s">
         <v>85</v>
       </c>
-      <c r="I18" s="25">
+      <c r="I18" s="21">
         <v>0</v>
       </c>
-      <c r="J18" s="20" t="s">
+      <c r="J18" s="16" t="s">
         <v>90</v>
       </c>
-      <c r="K18" s="26">
+      <c r="K18" s="22">
         <v>1</v>
       </c>
-      <c r="L18" s="19"/>
+      <c r="L18" s="15"/>
     </row>
     <row r="19" spans="2:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="B19" s="20" t="s">
+      <c r="B19" s="16" t="s">
         <v>91</v>
       </c>
-      <c r="C19" s="27" t="s">
+      <c r="C19" s="23" t="s">
         <v>108</v>
       </c>
-      <c r="D19" s="20" t="s">
+      <c r="D19" s="16" t="s">
         <v>143</v>
       </c>
-      <c r="E19" s="25">
+      <c r="E19" s="21">
         <v>3</v>
       </c>
-      <c r="F19" s="20" t="s">
+      <c r="F19" s="16" t="s">
         <v>94</v>
       </c>
-      <c r="G19" s="25"/>
-      <c r="H19" s="20" t="s">
+      <c r="G19" s="21"/>
+      <c r="H19" s="16" t="s">
         <v>93</v>
       </c>
-      <c r="I19" s="25">
+      <c r="I19" s="21">
         <v>0</v>
       </c>
-      <c r="J19" s="20"/>
-      <c r="K19" s="26"/>
-      <c r="L19" s="19"/>
+      <c r="J19" s="16"/>
+      <c r="K19" s="22"/>
+      <c r="L19" s="15"/>
     </row>
     <row r="20" spans="2:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="B20" s="20" t="s">
+      <c r="B20" s="16" t="s">
         <v>91</v>
       </c>
-      <c r="C20" s="27" t="s">
+      <c r="C20" s="23" t="s">
         <v>92</v>
       </c>
-      <c r="D20" s="20" t="s">
+      <c r="D20" s="16" t="s">
         <v>95</v>
       </c>
-      <c r="E20" s="25">
+      <c r="E20" s="21">
         <v>3</v>
       </c>
-      <c r="F20" s="20" t="s">
+      <c r="F20" s="16" t="s">
         <v>94</v>
       </c>
-      <c r="G20" s="25">
+      <c r="G20" s="21">
         <v>0</v>
       </c>
-      <c r="H20" s="20" t="s">
+      <c r="H20" s="16" t="s">
         <v>93</v>
       </c>
-      <c r="I20" s="25">
+      <c r="I20" s="21">
         <v>0</v>
       </c>
-      <c r="J20" s="20"/>
-      <c r="K20" s="26"/>
-      <c r="L20" s="19"/>
+      <c r="J20" s="16"/>
+      <c r="K20" s="22"/>
+      <c r="L20" s="15"/>
     </row>
     <row r="21" spans="2:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="B21" s="20" t="s">
+      <c r="B21" s="16" t="s">
         <v>80</v>
       </c>
-      <c r="C21" s="27" t="s">
+      <c r="C21" s="23" t="s">
         <v>79</v>
       </c>
-      <c r="D21" s="20" t="s">
+      <c r="D21" s="16" t="s">
         <v>148</v>
       </c>
-      <c r="E21" s="25">
+      <c r="E21" s="21">
         <v>3</v>
       </c>
-      <c r="F21" s="20" t="s">
+      <c r="F21" s="16" t="s">
         <v>78</v>
       </c>
-      <c r="G21" s="25">
+      <c r="G21" s="21">
         <v>1</v>
       </c>
-      <c r="H21" s="20" t="s">
+      <c r="H21" s="16" t="s">
         <v>79</v>
       </c>
-      <c r="I21" s="25">
+      <c r="I21" s="21">
         <v>0</v>
       </c>
-      <c r="J21" s="20" t="s">
+      <c r="J21" s="16" t="s">
         <v>90</v>
       </c>
-      <c r="K21" s="26">
+      <c r="K21" s="22">
         <v>1</v>
       </c>
-      <c r="L21" s="19"/>
+      <c r="L21" s="15"/>
     </row>
     <row r="22" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="H22" s="23"/>
-      <c r="I22" s="24"/>
+      <c r="H22" s="19"/>
+      <c r="I22" s="20"/>
     </row>
     <row r="23" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="H23" s="23"/>
-      <c r="I23" s="24"/>
+      <c r="H23" s="19"/>
+      <c r="I23" s="20"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="F3">
@@ -3658,12 +3796,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E782526-D8E4-4C3E-B5BE-C6A454AF7798}">
   <dimension ref="B2:K21"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="O8" sqref="O8"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="4.28515625" customWidth="1"/>
     <col min="2" max="2" width="20.7109375" customWidth="1"/>
     <col min="3" max="3" width="21.42578125" customWidth="1"/>
     <col min="4" max="4" width="25.7109375" customWidth="1"/>
@@ -3677,425 +3816,425 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:11" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="B2" s="32" t="s">
+      <c r="B2" s="28" t="s">
         <v>55</v>
       </c>
-      <c r="C2" s="30" t="s">
+      <c r="C2" s="26" t="s">
         <v>56</v>
       </c>
-      <c r="D2" s="31" t="s">
+      <c r="D2" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="31" t="s">
+      <c r="E2" s="27" t="s">
         <v>158</v>
       </c>
-      <c r="F2" s="31" t="s">
+      <c r="F2" s="27" t="s">
         <v>159</v>
       </c>
-      <c r="G2" s="31" t="s">
+      <c r="G2" s="27" t="s">
         <v>160</v>
       </c>
-      <c r="H2" s="31" t="s">
+      <c r="H2" s="27" t="s">
         <v>161</v>
       </c>
-      <c r="I2" s="31" t="s">
+      <c r="I2" s="27" t="s">
         <v>162</v>
       </c>
-      <c r="J2" s="31" t="s">
+      <c r="J2" s="27" t="s">
         <v>54</v>
       </c>
-      <c r="K2" s="34" t="s">
+      <c r="K2" s="30" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="3" spans="2:11" s="19" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="33" t="s">
+    <row r="3" spans="2:11" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="29" t="s">
         <v>70</v>
       </c>
-      <c r="C3" s="27" t="s">
+      <c r="C3" s="23" t="s">
         <v>116</v>
       </c>
-      <c r="D3" s="24" t="s">
+      <c r="D3" s="20" t="s">
         <v>169</v>
       </c>
-      <c r="E3" s="25">
+      <c r="E3" s="21">
         <v>3</v>
       </c>
-      <c r="F3" s="24"/>
-      <c r="G3" s="25"/>
-      <c r="H3" s="20"/>
-      <c r="I3" s="25"/>
-      <c r="J3" s="20"/>
-      <c r="K3" s="25"/>
-    </row>
-    <row r="4" spans="2:11" s="19" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="B4" s="33" t="s">
+      <c r="F3" s="20"/>
+      <c r="G3" s="21"/>
+      <c r="H3" s="16"/>
+      <c r="I3" s="21"/>
+      <c r="J3" s="16"/>
+      <c r="K3" s="21"/>
+    </row>
+    <row r="4" spans="2:11" s="15" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="B4" s="29" t="s">
         <v>70</v>
       </c>
-      <c r="C4" s="24" t="s">
+      <c r="C4" s="20" t="s">
         <v>127</v>
       </c>
-      <c r="D4" s="28" t="s">
+      <c r="D4" s="24" t="s">
         <v>100</v>
       </c>
-      <c r="E4" s="25">
+      <c r="E4" s="21">
         <v>3</v>
       </c>
-      <c r="F4" s="20"/>
-      <c r="G4" s="25"/>
-      <c r="H4" s="20"/>
-      <c r="I4" s="25"/>
-      <c r="J4" s="20"/>
-      <c r="K4" s="25"/>
-    </row>
-    <row r="5" spans="2:11" s="19" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="B5" s="33" t="s">
+      <c r="F4" s="16"/>
+      <c r="G4" s="21"/>
+      <c r="H4" s="16"/>
+      <c r="I4" s="21"/>
+      <c r="J4" s="16"/>
+      <c r="K4" s="21"/>
+    </row>
+    <row r="5" spans="2:11" s="15" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="B5" s="29" t="s">
         <v>70</v>
       </c>
-      <c r="C5" s="24" t="s">
+      <c r="C5" s="20" t="s">
         <v>117</v>
       </c>
-      <c r="D5" s="28" t="s">
+      <c r="D5" s="24" t="s">
         <v>157</v>
       </c>
-      <c r="E5" s="25">
+      <c r="E5" s="21">
         <v>3</v>
       </c>
-      <c r="F5" s="20"/>
-      <c r="G5" s="25"/>
-      <c r="H5" s="20"/>
-      <c r="I5" s="25"/>
-      <c r="J5" s="20" t="s">
+      <c r="F5" s="16"/>
+      <c r="G5" s="21"/>
+      <c r="H5" s="16"/>
+      <c r="I5" s="21"/>
+      <c r="J5" s="16" t="s">
         <v>126</v>
       </c>
-      <c r="K5" s="25"/>
-    </row>
-    <row r="6" spans="2:11" s="19" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="33" t="s">
+      <c r="K5" s="21"/>
+    </row>
+    <row r="6" spans="2:11" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="29" t="s">
         <v>168</v>
       </c>
-      <c r="C6" s="24" t="s">
+      <c r="C6" s="20" t="s">
         <v>110</v>
       </c>
-      <c r="D6" s="28" t="s">
+      <c r="D6" s="24" t="s">
         <v>155</v>
       </c>
-      <c r="E6" s="25">
+      <c r="E6" s="21">
         <v>3</v>
       </c>
-      <c r="F6" s="20"/>
-      <c r="G6" s="25"/>
-      <c r="H6" s="20"/>
-      <c r="I6" s="25"/>
-      <c r="J6" s="20"/>
-      <c r="K6" s="25"/>
-    </row>
-    <row r="7" spans="2:11" s="19" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="33" t="s">
+      <c r="F6" s="16"/>
+      <c r="G6" s="21"/>
+      <c r="H6" s="16"/>
+      <c r="I6" s="21"/>
+      <c r="J6" s="16"/>
+      <c r="K6" s="21"/>
+    </row>
+    <row r="7" spans="2:11" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="29" t="s">
         <v>168</v>
       </c>
-      <c r="C7" s="27" t="s">
+      <c r="C7" s="23" t="s">
         <v>111</v>
       </c>
-      <c r="D7" s="24" t="s">
+      <c r="D7" s="20" t="s">
         <v>156</v>
       </c>
-      <c r="E7" s="25">
+      <c r="E7" s="21">
         <v>3</v>
       </c>
-      <c r="F7" s="20"/>
-      <c r="G7" s="25"/>
-      <c r="H7" s="20"/>
-      <c r="I7" s="25"/>
-      <c r="J7" s="20"/>
-      <c r="K7" s="25"/>
-    </row>
-    <row r="8" spans="2:11" s="19" customFormat="1" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="33" t="s">
+      <c r="F7" s="16"/>
+      <c r="G7" s="21"/>
+      <c r="H7" s="16"/>
+      <c r="I7" s="21"/>
+      <c r="J7" s="16"/>
+      <c r="K7" s="21"/>
+    </row>
+    <row r="8" spans="2:11" s="15" customFormat="1" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="29" t="s">
         <v>136</v>
       </c>
-      <c r="C8" s="27" t="s">
+      <c r="C8" s="23" t="s">
         <v>131</v>
       </c>
-      <c r="D8" s="20" t="s">
+      <c r="D8" s="16" t="s">
         <v>154</v>
       </c>
-      <c r="E8" s="25">
+      <c r="E8" s="21">
         <v>3</v>
       </c>
-      <c r="F8" s="20"/>
-      <c r="G8" s="25"/>
-      <c r="H8" s="20"/>
-      <c r="I8" s="25"/>
-      <c r="J8" s="20"/>
-      <c r="K8" s="25"/>
-    </row>
-    <row r="9" spans="2:11" s="19" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="B9" s="33" t="s">
+      <c r="F8" s="16"/>
+      <c r="G8" s="21"/>
+      <c r="H8" s="16"/>
+      <c r="I8" s="21"/>
+      <c r="J8" s="16"/>
+      <c r="K8" s="21"/>
+    </row>
+    <row r="9" spans="2:11" s="15" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="B9" s="29" t="s">
         <v>136</v>
       </c>
-      <c r="C9" s="27" t="s">
+      <c r="C9" s="23" t="s">
         <v>149</v>
       </c>
-      <c r="D9" s="20"/>
-      <c r="E9" s="25"/>
-      <c r="F9" s="20"/>
-      <c r="G9" s="25"/>
-      <c r="H9" s="20"/>
-      <c r="I9" s="25"/>
-      <c r="J9" s="20" t="s">
+      <c r="D9" s="16"/>
+      <c r="E9" s="21"/>
+      <c r="F9" s="16"/>
+      <c r="G9" s="21"/>
+      <c r="H9" s="16"/>
+      <c r="I9" s="21"/>
+      <c r="J9" s="16" t="s">
         <v>50</v>
       </c>
-      <c r="K9" s="25">
+      <c r="K9" s="21">
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="2:11" s="19" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="33" t="s">
+    <row r="10" spans="2:11" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="29" t="s">
         <v>136</v>
       </c>
-      <c r="C10" s="27" t="s">
+      <c r="C10" s="23" t="s">
         <v>105</v>
       </c>
-      <c r="D10" s="20" t="s">
+      <c r="D10" s="16" t="s">
         <v>153</v>
       </c>
-      <c r="E10" s="25">
+      <c r="E10" s="21">
         <v>3</v>
       </c>
-      <c r="F10" s="20"/>
-      <c r="G10" s="25"/>
-      <c r="H10" s="20"/>
-      <c r="I10" s="25"/>
-      <c r="J10" s="20" t="s">
+      <c r="F10" s="16"/>
+      <c r="G10" s="21"/>
+      <c r="H10" s="16"/>
+      <c r="I10" s="21"/>
+      <c r="J10" s="16" t="s">
         <v>106</v>
       </c>
-      <c r="K10" s="25"/>
-    </row>
-    <row r="11" spans="2:11" s="19" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="B11" s="33" t="s">
+      <c r="K10" s="21"/>
+    </row>
+    <row r="11" spans="2:11" s="15" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="B11" s="29" t="s">
         <v>136</v>
       </c>
-      <c r="C11" s="27" t="s">
+      <c r="C11" s="23" t="s">
         <v>134</v>
       </c>
-      <c r="D11" s="20" t="s">
+      <c r="D11" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="E11" s="25">
+      <c r="E11" s="21">
         <v>3</v>
       </c>
-      <c r="F11" s="20"/>
-      <c r="G11" s="25"/>
-      <c r="H11" s="20"/>
-      <c r="I11" s="25"/>
-      <c r="J11" s="20"/>
-      <c r="K11" s="25"/>
-    </row>
-    <row r="12" spans="2:11" s="19" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="B12" s="33" t="s">
+      <c r="F11" s="16"/>
+      <c r="G11" s="21"/>
+      <c r="H11" s="16"/>
+      <c r="I11" s="21"/>
+      <c r="J11" s="16"/>
+      <c r="K11" s="21"/>
+    </row>
+    <row r="12" spans="2:11" s="15" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="B12" s="29" t="s">
         <v>136</v>
       </c>
-      <c r="C12" s="27" t="s">
+      <c r="C12" s="23" t="s">
         <v>132</v>
       </c>
-      <c r="D12" s="20"/>
-      <c r="E12" s="25"/>
-      <c r="F12" s="20"/>
-      <c r="G12" s="25"/>
-      <c r="H12" s="20"/>
-      <c r="I12" s="25"/>
-      <c r="J12" s="20" t="s">
+      <c r="D12" s="16"/>
+      <c r="E12" s="21"/>
+      <c r="F12" s="16"/>
+      <c r="G12" s="21"/>
+      <c r="H12" s="16"/>
+      <c r="I12" s="21"/>
+      <c r="J12" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="K12" s="25">
+      <c r="K12" s="21">
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="2:11" s="19" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="B13" s="33" t="s">
+    <row r="13" spans="2:11" s="15" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="B13" s="29" t="s">
         <v>136</v>
       </c>
-      <c r="C13" s="27" t="s">
+      <c r="C13" s="23" t="s">
         <v>133</v>
       </c>
-      <c r="D13" s="20"/>
-      <c r="E13" s="25"/>
-      <c r="F13" s="20"/>
-      <c r="G13" s="25"/>
-      <c r="H13" s="20"/>
-      <c r="I13" s="25"/>
-      <c r="J13" s="20" t="s">
+      <c r="D13" s="16"/>
+      <c r="E13" s="21"/>
+      <c r="F13" s="16"/>
+      <c r="G13" s="21"/>
+      <c r="H13" s="16"/>
+      <c r="I13" s="21"/>
+      <c r="J13" s="16" t="s">
         <v>46</v>
       </c>
-      <c r="K13" s="25">
+      <c r="K13" s="21">
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="2:11" s="19" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="B14" s="33" t="s">
+    <row r="14" spans="2:11" s="15" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="B14" s="29" t="s">
         <v>136</v>
       </c>
-      <c r="C14" s="27" t="s">
+      <c r="C14" s="23" t="s">
         <v>137</v>
       </c>
-      <c r="D14" s="20"/>
-      <c r="E14" s="25"/>
-      <c r="F14" s="20"/>
-      <c r="G14" s="25"/>
-      <c r="H14" s="20"/>
-      <c r="I14" s="25"/>
-      <c r="J14" s="20" t="s">
+      <c r="D14" s="16"/>
+      <c r="E14" s="21"/>
+      <c r="F14" s="16"/>
+      <c r="G14" s="21"/>
+      <c r="H14" s="16"/>
+      <c r="I14" s="21"/>
+      <c r="J14" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="K14" s="25">
+      <c r="K14" s="21">
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="2:11" s="19" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="B15" s="33" t="s">
+    <row r="15" spans="2:11" s="15" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="B15" s="29" t="s">
         <v>136</v>
       </c>
-      <c r="C15" s="27" t="s">
+      <c r="C15" s="23" t="s">
         <v>135</v>
       </c>
-      <c r="D15" s="24" t="s">
+      <c r="D15" s="20" t="s">
         <v>129</v>
       </c>
-      <c r="E15" s="25">
+      <c r="E15" s="21">
         <v>3</v>
       </c>
-      <c r="F15" s="20"/>
-      <c r="G15" s="25"/>
-      <c r="H15" s="20"/>
-      <c r="I15" s="25"/>
-      <c r="J15" s="20"/>
-      <c r="K15" s="25"/>
-    </row>
-    <row r="16" spans="2:11" s="19" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="33" t="s">
+      <c r="F15" s="16"/>
+      <c r="G15" s="21"/>
+      <c r="H15" s="16"/>
+      <c r="I15" s="21"/>
+      <c r="J15" s="16"/>
+      <c r="K15" s="21"/>
+    </row>
+    <row r="16" spans="2:11" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="29" t="s">
         <v>136</v>
       </c>
-      <c r="C16" s="27" t="s">
+      <c r="C16" s="23" t="s">
         <v>142</v>
       </c>
-      <c r="D16" s="20"/>
-      <c r="E16" s="25"/>
-      <c r="F16" s="20"/>
-      <c r="G16" s="25"/>
-      <c r="H16" s="20"/>
-      <c r="I16" s="25"/>
-      <c r="J16" s="20" t="s">
+      <c r="D16" s="16"/>
+      <c r="E16" s="21"/>
+      <c r="F16" s="16"/>
+      <c r="G16" s="21"/>
+      <c r="H16" s="16"/>
+      <c r="I16" s="21"/>
+      <c r="J16" s="16" t="s">
         <v>170</v>
       </c>
-      <c r="K16" s="25">
+      <c r="K16" s="21">
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="2:11" s="19" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="33" t="s">
+    <row r="17" spans="2:11" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="29" t="s">
         <v>138</v>
       </c>
-      <c r="C17" s="27" t="s">
+      <c r="C17" s="23" t="s">
         <v>139</v>
       </c>
-      <c r="D17" s="20" t="s">
+      <c r="D17" s="16" t="s">
         <v>163</v>
       </c>
-      <c r="E17" s="25"/>
-      <c r="F17" s="20" t="s">
+      <c r="E17" s="21"/>
+      <c r="F17" s="16" t="s">
         <v>164</v>
       </c>
-      <c r="G17" s="25"/>
-      <c r="H17" s="20" t="s">
+      <c r="G17" s="21"/>
+      <c r="H17" s="16" t="s">
         <v>165</v>
       </c>
-      <c r="I17" s="25"/>
-      <c r="K17" s="25">
+      <c r="I17" s="21"/>
+      <c r="K17" s="21">
         <v>3</v>
       </c>
     </row>
-    <row r="18" spans="2:11" s="19" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="B18" s="33" t="s">
+    <row r="18" spans="2:11" s="15" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="B18" s="29" t="s">
         <v>67</v>
       </c>
-      <c r="C18" s="27" t="s">
+      <c r="C18" s="23" t="s">
         <v>119</v>
       </c>
-      <c r="D18" s="20" t="s">
+      <c r="D18" s="16" t="s">
         <v>151</v>
       </c>
-      <c r="E18" s="25">
+      <c r="E18" s="21">
         <v>3</v>
       </c>
-      <c r="F18" s="20"/>
-      <c r="G18" s="25"/>
-      <c r="H18" s="20"/>
-      <c r="I18" s="25"/>
-      <c r="J18" s="20"/>
-      <c r="K18" s="25"/>
-    </row>
-    <row r="19" spans="2:11" s="19" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="33" t="s">
+      <c r="F18" s="16"/>
+      <c r="G18" s="21"/>
+      <c r="H18" s="16"/>
+      <c r="I18" s="21"/>
+      <c r="J18" s="16"/>
+      <c r="K18" s="21"/>
+    </row>
+    <row r="19" spans="2:11" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B19" s="29" t="s">
         <v>80</v>
       </c>
-      <c r="C19" s="27" t="s">
+      <c r="C19" s="23" t="s">
         <v>166</v>
       </c>
-      <c r="D19" s="20" t="s">
+      <c r="D19" s="16" t="s">
         <v>150</v>
       </c>
-      <c r="E19" s="25">
+      <c r="E19" s="21">
         <v>3</v>
       </c>
-      <c r="F19" s="20"/>
-      <c r="G19" s="25"/>
-      <c r="H19" s="20" t="s">
+      <c r="F19" s="16"/>
+      <c r="G19" s="21"/>
+      <c r="H19" s="16" t="s">
         <v>118</v>
       </c>
-      <c r="I19" s="25"/>
-      <c r="J19" s="20"/>
-      <c r="K19" s="25"/>
-    </row>
-    <row r="20" spans="2:11" s="19" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="33" t="s">
+      <c r="I19" s="21"/>
+      <c r="J19" s="16"/>
+      <c r="K19" s="21"/>
+    </row>
+    <row r="20" spans="2:11" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="29" t="s">
         <v>80</v>
       </c>
-      <c r="C20" s="27" t="s">
+      <c r="C20" s="23" t="s">
         <v>101</v>
       </c>
-      <c r="D20" s="20" t="s">
+      <c r="D20" s="16" t="s">
         <v>167</v>
       </c>
-      <c r="E20" s="25">
+      <c r="E20" s="21">
         <v>3</v>
       </c>
-      <c r="F20" s="20"/>
-      <c r="G20" s="25"/>
-      <c r="H20" s="20"/>
-      <c r="I20" s="25"/>
-      <c r="J20" s="20"/>
-      <c r="K20" s="25"/>
-    </row>
-    <row r="21" spans="2:11" s="19" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="B21" s="35" t="s">
+      <c r="F20" s="16"/>
+      <c r="G20" s="21"/>
+      <c r="H20" s="16"/>
+      <c r="I20" s="21"/>
+      <c r="J20" s="16"/>
+      <c r="K20" s="21"/>
+    </row>
+    <row r="21" spans="2:11" s="15" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="B21" s="31" t="s">
         <v>80</v>
       </c>
-      <c r="C21" s="36" t="s">
+      <c r="C21" s="32" t="s">
         <v>130</v>
       </c>
-      <c r="D21" s="37" t="s">
+      <c r="D21" s="33" t="s">
         <v>152</v>
       </c>
-      <c r="E21" s="38">
+      <c r="E21" s="34">
         <v>3</v>
       </c>
-      <c r="F21" s="37"/>
-      <c r="G21" s="38"/>
-      <c r="H21" s="37"/>
-      <c r="I21" s="38"/>
-      <c r="J21" s="37"/>
-      <c r="K21" s="38"/>
+      <c r="F21" s="33"/>
+      <c r="G21" s="34"/>
+      <c r="H21" s="33"/>
+      <c r="I21" s="34"/>
+      <c r="J21" s="33"/>
+      <c r="K21" s="34"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="K12 E3:E8 K9 E12:E19">
@@ -4211,21 +4350,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100E9DF8450C6EFBE48970C7FCAF770DA1A" ma:contentTypeVersion="10" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="c6dcfda39d09abbc7e319e541775dd1d">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="fdcd1ac8-0856-4252-9620-ac12cf18151f" xmlns:ns3="9d3077f2-8ff2-4760-98d0-51448b525bb2" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="53212a687d31e99e11f835bc135dbf1a" ns2:_="" ns3:_="">
     <xsd:import namespace="fdcd1ac8-0856-4252-9620-ac12cf18151f"/>
@@ -4428,21 +4552,22 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F748C07B-9BF8-42E0-82B9-5EEDA9C329E9}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8515C2FC-9CC8-4ADF-B266-3209D6F8326F}">
-  <ds:schemaRefs/>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CD0A3277-3A7F-4349-BA58-E68925244953}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -4460,4 +4585,18 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8515C2FC-9CC8-4ADF-B266-3209D6F8326F}">
+  <ds:schemaRefs/>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F748C07B-9BF8-42E0-82B9-5EEDA9C329E9}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>